--- a/Data/APA/APA.xlsx
+++ b/Data/APA/APA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data sets\APA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data\APA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6174A626-A541-459C-B28E-5164B113C2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F9EE2-EDC5-45BC-90AD-420D929EC5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="8472" windowWidth="15120" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14556" yWindow="1908" windowWidth="14508" windowHeight="14772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistical reporting errors al" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Statistical reporting errors al'!$A$1:$W$525</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7008" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7007" uniqueCount="1187">
   <si>
     <t>Article</t>
   </si>
@@ -1988,9 +2001,6 @@
   </si>
   <si>
     <t>Again the overall model was significant at F(3, 399) = 4.1, p = .007; and post hoc comparisons using Tukey analysis found My Pizza Hut significantly higher than Twist (but no other comparisons were significantly different).</t>
-  </si>
-  <si>
-    <t>Article contains premises. However, these premises are not as explicitly formulated as the other explicitly stated hypotheses. Therefore, they are not considered explicitly stated hypotheses.</t>
   </si>
   <si>
     <t>This means that, as hypothesized, only at the high-status level (i.e., Picasso) are artists rewarded in terms of aesthetic value for mixing styles (Minconsistent = 7.6 versus Mconsistent = 6.5, t(58) = 2.174, p = .034).</t>
@@ -9286,8 +9296,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG525"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="W260" sqref="W260"/>
+    <sheetView tabSelected="1" topLeftCell="M329" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="N530" sqref="N530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9311,7 +9321,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -9371,7 +9381,7 @@
         <v>614</v>
       </c>
       <c r="U1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>611</v>
@@ -9386,7 +9396,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9459,7 +9469,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9532,7 +9542,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9594,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3" t="s">
@@ -9607,7 +9617,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -9669,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -9680,7 +9690,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -9742,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -9753,7 +9763,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -9815,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -9826,7 +9836,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -9888,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -9899,7 +9909,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -9961,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -9972,7 +9982,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -10034,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -10045,7 +10055,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -10107,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -10118,7 +10128,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -10180,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -10191,7 +10201,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -10253,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -10264,7 +10274,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -10326,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -10337,7 +10347,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -10472,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>616</v>
@@ -10547,7 +10557,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>616</v>
@@ -10622,10 +10632,10 @@
         <v>1</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -10697,7 +10707,7 @@
         <v>1</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="V19" s="3" t="s">
         <v>617</v>
@@ -10710,7 +10720,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -10772,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -10845,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>618</v>
@@ -10858,7 +10868,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -10920,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -10931,7 +10941,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -10993,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -11079,7 +11089,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -11152,7 +11162,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -11225,7 +11235,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -11287,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -11298,7 +11308,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -11360,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -11371,7 +11381,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -11433,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -11444,7 +11454,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -11506,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -11517,7 +11527,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -11579,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -11590,7 +11600,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -11652,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
@@ -11725,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>624</v>
@@ -11800,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="V34" s="3" t="s">
         <v>624</v>
@@ -11875,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>624</v>
@@ -11950,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="V36" s="3" t="s">
         <v>625</v>
@@ -12025,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="V37" s="3" t="s">
         <v>625</v>
@@ -12100,7 +12110,7 @@
         <v>1</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="V38" s="3" t="s">
         <v>625</v>
@@ -12175,7 +12185,7 @@
         <v>1</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="V39" s="3" t="s">
         <v>625</v>
@@ -12250,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="V40" s="3" t="s">
         <v>625</v>
@@ -12325,7 +12335,7 @@
         <v>1</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>625</v>
@@ -12400,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>625</v>
@@ -12475,7 +12485,7 @@
         <v>1</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>625</v>
@@ -12550,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>625</v>
@@ -12850,7 +12860,7 @@
         <v>1</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>626</v>
@@ -12925,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>626</v>
@@ -13000,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V50" s="3" t="s">
         <v>626</v>
@@ -13075,7 +13085,7 @@
         <v>1</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="V51" s="3" t="s">
         <v>626</v>
@@ -13150,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>626</v>
@@ -13225,7 +13235,7 @@
         <v>1</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="V53" s="3" t="s">
         <v>626</v>
@@ -13300,7 +13310,7 @@
         <v>1</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>626</v>
@@ -13375,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="V55" s="3" t="s">
         <v>626</v>
@@ -13450,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="V56" s="3" t="s">
         <v>627</v>
@@ -13463,7 +13473,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>9</v>
       </c>
@@ -13525,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V57" s="3"/>
       <c r="W57" s="3" t="s">
@@ -13538,7 +13548,7 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>9</v>
       </c>
@@ -13600,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="V58" s="3"/>
       <c r="W58" s="3" t="s">
@@ -13613,7 +13623,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>9</v>
       </c>
@@ -13675,7 +13685,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
@@ -13686,7 +13696,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -13748,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V60" s="3"/>
       <c r="W60" s="3" t="s">
@@ -13761,7 +13771,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>9</v>
       </c>
@@ -13823,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="V61" s="3"/>
       <c r="W61" s="3" t="s">
@@ -13836,7 +13846,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>9</v>
       </c>
@@ -13898,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V62" s="3"/>
       <c r="W62" s="3" t="s">
@@ -13911,7 +13921,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>9</v>
       </c>
@@ -13973,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3" t="s">
@@ -14048,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="V64" s="3" t="s">
         <v>630</v>
@@ -14125,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V65" s="3" t="s">
         <v>631</v>
@@ -14202,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>632</v>
@@ -14294,7 +14304,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>10</v>
       </c>
@@ -14356,11 +14366,11 @@
         <v>0</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
@@ -14369,7 +14379,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>11</v>
       </c>
@@ -14442,7 +14452,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>11</v>
       </c>
@@ -14515,7 +14525,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>11</v>
       </c>
@@ -14588,7 +14598,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>11</v>
       </c>
@@ -14661,7 +14671,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>11</v>
       </c>
@@ -14734,7 +14744,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>11</v>
       </c>
@@ -14807,7 +14817,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>11</v>
       </c>
@@ -14880,7 +14890,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>11</v>
       </c>
@@ -14953,7 +14963,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>11</v>
       </c>
@@ -15026,7 +15036,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>11</v>
       </c>
@@ -15099,7 +15109,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>11</v>
       </c>
@@ -15172,7 +15182,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>11</v>
       </c>
@@ -15245,7 +15255,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>11</v>
       </c>
@@ -15318,7 +15328,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>12</v>
       </c>
@@ -15380,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
@@ -15391,7 +15401,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>12</v>
       </c>
@@ -15453,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
@@ -15464,7 +15474,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>12</v>
       </c>
@@ -15526,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
@@ -15537,7 +15547,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>12</v>
       </c>
@@ -15599,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
@@ -15672,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="V86" s="3" t="s">
         <v>647</v>
@@ -15685,7 +15695,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -15747,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
@@ -15758,7 +15768,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>12</v>
       </c>
@@ -15820,7 +15830,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
@@ -15831,7 +15841,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>12</v>
       </c>
@@ -15893,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
@@ -15904,7 +15914,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>12</v>
       </c>
@@ -15966,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
@@ -15977,7 +15987,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>13</v>
       </c>
@@ -16039,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
@@ -16050,7 +16060,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>13</v>
       </c>
@@ -16112,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
@@ -16123,7 +16133,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>13</v>
       </c>
@@ -16185,7 +16195,7 @@
         <v>0</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
@@ -16196,7 +16206,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>13</v>
       </c>
@@ -16258,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
@@ -16269,7 +16279,7 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>13</v>
       </c>
@@ -16331,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
@@ -16342,7 +16352,7 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>13</v>
       </c>
@@ -16404,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
@@ -16415,7 +16425,7 @@
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>13</v>
       </c>
@@ -16477,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
@@ -16488,7 +16498,7 @@
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>13</v>
       </c>
@@ -16550,7 +16560,7 @@
         <v>0</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
@@ -16561,7 +16571,7 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>13</v>
       </c>
@@ -16623,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
@@ -16634,7 +16644,7 @@
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>13</v>
       </c>
@@ -16696,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
@@ -16707,7 +16717,7 @@
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>14</v>
       </c>
@@ -16780,7 +16790,7 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>14</v>
       </c>
@@ -16853,7 +16863,7 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>15</v>
       </c>
@@ -16915,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="U103" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
@@ -17213,7 +17223,7 @@
         <v>1</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="V107" s="3" t="s">
         <v>653</v>
@@ -17290,10 +17300,10 @@
         <v>1</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
@@ -17365,10 +17375,10 @@
         <v>1</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
@@ -17440,10 +17450,10 @@
         <v>1</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
@@ -17515,10 +17525,10 @@
         <v>1</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="V111" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -17590,10 +17600,10 @@
         <v>1</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
@@ -17665,10 +17675,10 @@
         <v>1</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="V113" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
@@ -17740,10 +17750,10 @@
         <v>1</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
@@ -17815,10 +17825,10 @@
         <v>1</v>
       </c>
       <c r="U115" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
@@ -17890,10 +17900,10 @@
         <v>1</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
@@ -17965,10 +17975,10 @@
         <v>1</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
@@ -18040,10 +18050,10 @@
         <v>1</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
@@ -18115,13 +18125,13 @@
         <v>1</v>
       </c>
       <c r="U119" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="V119" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="W119" s="3" t="s">
         <v>955</v>
-      </c>
-      <c r="V119" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="W119" s="3" t="s">
-        <v>956</v>
       </c>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
@@ -18192,13 +18202,13 @@
         <v>1</v>
       </c>
       <c r="U120" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="V120" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="W120" s="3" t="s">
         <v>957</v>
-      </c>
-      <c r="V120" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="W120" s="3" t="s">
-        <v>958</v>
       </c>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
@@ -18207,7 +18217,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>18</v>
       </c>
@@ -18269,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="U121" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
@@ -18280,7 +18290,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>18</v>
       </c>
@@ -18342,7 +18352,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
@@ -18415,10 +18425,10 @@
         <v>1</v>
       </c>
       <c r="U123" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="V123" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
@@ -18490,10 +18500,10 @@
         <v>1</v>
       </c>
       <c r="U124" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="V124" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
@@ -18565,10 +18575,10 @@
         <v>1</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="V125" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
@@ -18578,7 +18588,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>19</v>
       </c>
@@ -18640,12 +18650,10 @@
         <v>0</v>
       </c>
       <c r="U126" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="V126" s="3"/>
-      <c r="W126" s="3" t="s">
-        <v>655</v>
-      </c>
+      <c r="W126" s="3"/>
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
@@ -18653,7 +18661,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>19</v>
       </c>
@@ -18726,7 +18734,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
     </row>
-    <row r="128" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>20</v>
       </c>
@@ -18788,7 +18796,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
@@ -18799,7 +18807,7 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
     </row>
-    <row r="129" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>20</v>
       </c>
@@ -18861,7 +18869,7 @@
         <v>0</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
@@ -18934,10 +18942,10 @@
         <v>1</v>
       </c>
       <c r="U130" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="V130" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
@@ -19009,10 +19017,10 @@
         <v>1</v>
       </c>
       <c r="U131" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="V131" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
@@ -19084,10 +19092,10 @@
         <v>1</v>
       </c>
       <c r="U132" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="V132" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
@@ -19097,7 +19105,7 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
     </row>
-    <row r="133" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>20</v>
       </c>
@@ -19159,7 +19167,7 @@
         <v>0</v>
       </c>
       <c r="U133" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
@@ -19170,7 +19178,7 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>20</v>
       </c>
@@ -19232,7 +19240,7 @@
         <v>0</v>
       </c>
       <c r="U134" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
@@ -19243,7 +19251,7 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
     </row>
-    <row r="135" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>20</v>
       </c>
@@ -19305,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="U135" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
@@ -19378,10 +19386,10 @@
         <v>1</v>
       </c>
       <c r="U136" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="V136" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
@@ -19453,10 +19461,10 @@
         <v>1</v>
       </c>
       <c r="U137" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V137" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
@@ -19528,10 +19536,10 @@
         <v>1</v>
       </c>
       <c r="U138" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="V138" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
@@ -19603,10 +19611,10 @@
         <v>1</v>
       </c>
       <c r="U139" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="V139" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
@@ -19616,7 +19624,7 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>20</v>
       </c>
@@ -19678,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="U140" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="V140" s="3"/>
       <c r="W140" s="3"/>
@@ -19689,7 +19697,7 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>20</v>
       </c>
@@ -19751,7 +19759,7 @@
         <v>0</v>
       </c>
       <c r="U141" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
@@ -19824,10 +19832,10 @@
         <v>1</v>
       </c>
       <c r="U142" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="V142" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
@@ -19899,10 +19907,10 @@
         <v>1</v>
       </c>
       <c r="U143" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V143" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
@@ -19974,10 +19982,10 @@
         <v>1</v>
       </c>
       <c r="U144" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V144" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
@@ -20049,10 +20057,10 @@
         <v>1</v>
       </c>
       <c r="U145" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V145" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
@@ -20124,10 +20132,10 @@
         <v>1</v>
       </c>
       <c r="U146" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V146" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
@@ -20137,7 +20145,7 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>20</v>
       </c>
@@ -20199,7 +20207,7 @@
         <v>0</v>
       </c>
       <c r="U147" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
@@ -20210,7 +20218,7 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>20</v>
       </c>
@@ -20272,7 +20280,7 @@
         <v>0</v>
       </c>
       <c r="U148" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
@@ -20345,10 +20353,10 @@
         <v>1</v>
       </c>
       <c r="U149" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="V149" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
@@ -20420,10 +20428,10 @@
         <v>1</v>
       </c>
       <c r="U150" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V150" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
@@ -20495,10 +20503,10 @@
         <v>1</v>
       </c>
       <c r="U151" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V151" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
@@ -20508,7 +20516,7 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
     </row>
-    <row r="152" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>20</v>
       </c>
@@ -20570,7 +20578,7 @@
         <v>0</v>
       </c>
       <c r="U152" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
@@ -20581,7 +20589,7 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
     </row>
-    <row r="153" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>20</v>
       </c>
@@ -20643,7 +20651,7 @@
         <v>0</v>
       </c>
       <c r="U153" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
@@ -20654,7 +20662,7 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>21</v>
       </c>
@@ -20716,7 +20724,7 @@
         <v>0</v>
       </c>
       <c r="U154" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
@@ -20789,10 +20797,10 @@
         <v>1</v>
       </c>
       <c r="U155" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V155" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
@@ -20864,10 +20872,10 @@
         <v>1</v>
       </c>
       <c r="U156" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="V156" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
@@ -20939,10 +20947,10 @@
         <v>1</v>
       </c>
       <c r="U157" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="V157" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
@@ -21014,10 +21022,10 @@
         <v>1</v>
       </c>
       <c r="U158" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="V158" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
@@ -21089,10 +21097,10 @@
         <v>1</v>
       </c>
       <c r="U159" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="V159" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
@@ -21164,10 +21172,10 @@
         <v>1</v>
       </c>
       <c r="U160" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="V160" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
@@ -21239,10 +21247,10 @@
         <v>1</v>
       </c>
       <c r="U161" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V161" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
@@ -21314,10 +21322,10 @@
         <v>1</v>
       </c>
       <c r="U162" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V162" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
@@ -21389,10 +21397,10 @@
         <v>1</v>
       </c>
       <c r="U163" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V163" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
@@ -21464,10 +21472,10 @@
         <v>1</v>
       </c>
       <c r="U164" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V164" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
@@ -21539,10 +21547,10 @@
         <v>1</v>
       </c>
       <c r="U165" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V165" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
@@ -21614,10 +21622,10 @@
         <v>1</v>
       </c>
       <c r="U166" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V166" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
@@ -21627,7 +21635,7 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>23</v>
       </c>
@@ -21689,7 +21697,7 @@
         <v>0</v>
       </c>
       <c r="U167" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
@@ -21762,10 +21770,10 @@
         <v>1</v>
       </c>
       <c r="U168" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="V168" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
@@ -21837,10 +21845,10 @@
         <v>1</v>
       </c>
       <c r="U169" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="V169" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
@@ -21850,7 +21858,7 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>23</v>
       </c>
@@ -21912,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V170" s="3"/>
       <c r="W170" s="3"/>
@@ -21985,10 +21993,10 @@
         <v>1</v>
       </c>
       <c r="U171" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V171" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
@@ -22060,10 +22068,10 @@
         <v>1</v>
       </c>
       <c r="U172" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V172" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
@@ -22135,10 +22143,10 @@
         <v>1</v>
       </c>
       <c r="U173" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="V173" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
@@ -22210,10 +22218,10 @@
         <v>1</v>
       </c>
       <c r="U174" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="V174" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
@@ -22285,10 +22293,10 @@
         <v>1</v>
       </c>
       <c r="U175" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="V175" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
@@ -22360,10 +22368,10 @@
         <v>1</v>
       </c>
       <c r="U176" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="V176" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
@@ -22435,10 +22443,10 @@
         <v>1</v>
       </c>
       <c r="U177" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="V177" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
@@ -22510,10 +22518,10 @@
         <v>1</v>
       </c>
       <c r="U178" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="V178" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
@@ -22585,10 +22593,10 @@
         <v>1</v>
       </c>
       <c r="U179" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="V179" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
@@ -22598,7 +22606,7 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>23</v>
       </c>
@@ -22660,7 +22668,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="V180" s="3"/>
       <c r="W180" s="3"/>
@@ -22671,7 +22679,7 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>23</v>
       </c>
@@ -22733,7 +22741,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="V181" s="3"/>
       <c r="W181" s="3"/>
@@ -22744,7 +22752,7 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>23</v>
       </c>
@@ -22806,7 +22814,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="V182" s="3"/>
       <c r="W182" s="3"/>
@@ -22817,7 +22825,7 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>23</v>
       </c>
@@ -22879,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="V183" s="3"/>
       <c r="W183" s="3"/>
@@ -22890,7 +22898,7 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>23</v>
       </c>
@@ -22952,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
@@ -22963,7 +22971,7 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>23</v>
       </c>
@@ -23025,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="V185" s="3"/>
       <c r="W185" s="3"/>
@@ -23098,10 +23106,10 @@
         <v>1</v>
       </c>
       <c r="U186" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="V186" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W186" s="3"/>
       <c r="X186" s="3"/>
@@ -23173,10 +23181,10 @@
         <v>1</v>
       </c>
       <c r="U187" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="V187" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
@@ -23248,10 +23256,10 @@
         <v>1</v>
       </c>
       <c r="U188" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="V188" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
@@ -23323,10 +23331,10 @@
         <v>1</v>
       </c>
       <c r="U189" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="V189" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
@@ -23398,10 +23406,10 @@
         <v>1</v>
       </c>
       <c r="U190" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="V190" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
@@ -23473,10 +23481,10 @@
         <v>1</v>
       </c>
       <c r="U191" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="V191" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
@@ -23486,7 +23494,7 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>23</v>
       </c>
@@ -23548,7 +23556,7 @@
         <v>0</v>
       </c>
       <c r="U192" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="V192" s="3"/>
       <c r="W192" s="3"/>
@@ -23621,10 +23629,10 @@
         <v>1</v>
       </c>
       <c r="U193" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="V193" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
@@ -23696,10 +23704,10 @@
         <v>1</v>
       </c>
       <c r="U194" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="V194" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
@@ -23709,7 +23717,7 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>23</v>
       </c>
@@ -23771,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="U195" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
@@ -23844,10 +23852,10 @@
         <v>1</v>
       </c>
       <c r="U196" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="V196" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
@@ -23919,10 +23927,10 @@
         <v>1</v>
       </c>
       <c r="U197" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="V197" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
@@ -23994,10 +24002,10 @@
         <v>1</v>
       </c>
       <c r="U198" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="V198" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
@@ -24069,10 +24077,10 @@
         <v>1</v>
       </c>
       <c r="U199" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="V199" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
@@ -24144,10 +24152,10 @@
         <v>1</v>
       </c>
       <c r="U200" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="V200" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="W200" s="3"/>
       <c r="X200" s="3"/>
@@ -24219,10 +24227,10 @@
         <v>1</v>
       </c>
       <c r="U201" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="V201" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
@@ -24294,10 +24302,10 @@
         <v>1</v>
       </c>
       <c r="U202" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V202" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
@@ -24369,10 +24377,10 @@
         <v>1</v>
       </c>
       <c r="U203" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V203" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
@@ -24444,10 +24452,10 @@
         <v>1</v>
       </c>
       <c r="U204" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V204" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
@@ -24519,10 +24527,10 @@
         <v>1</v>
       </c>
       <c r="U205" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V205" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
@@ -24594,10 +24602,10 @@
         <v>1</v>
       </c>
       <c r="U206" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="V206" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
@@ -24669,10 +24677,10 @@
         <v>1</v>
       </c>
       <c r="U207" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="V207" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
@@ -24744,10 +24752,10 @@
         <v>1</v>
       </c>
       <c r="U208" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="V208" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
@@ -24819,10 +24827,10 @@
         <v>1</v>
       </c>
       <c r="U209" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="V209" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
@@ -24832,7 +24840,7 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>25</v>
       </c>
@@ -24894,7 +24902,7 @@
         <v>0</v>
       </c>
       <c r="U210" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="V210" s="3"/>
       <c r="W210" s="3" t="s">
@@ -24907,7 +24915,7 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>25</v>
       </c>
@@ -24969,7 +24977,7 @@
         <v>0</v>
       </c>
       <c r="U211" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="V211" s="3"/>
       <c r="W211" s="3" t="s">
@@ -24982,7 +24990,7 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>25</v>
       </c>
@@ -25044,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U212" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="V212" s="3"/>
       <c r="W212" s="3" t="s">
@@ -25057,7 +25065,7 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>25</v>
       </c>
@@ -25119,7 +25127,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="V213" s="3"/>
       <c r="W213" s="3" t="s">
@@ -25132,7 +25140,7 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>25</v>
       </c>
@@ -25194,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="V214" s="3"/>
       <c r="W214" s="3" t="s">
@@ -25207,7 +25215,7 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>25</v>
       </c>
@@ -25269,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="V215" s="3"/>
       <c r="W215" s="3" t="s">
@@ -25282,7 +25290,7 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
     </row>
-    <row r="216" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>26</v>
       </c>
@@ -25344,7 +25352,7 @@
         <v>0</v>
       </c>
       <c r="U216" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="V216" s="3"/>
       <c r="W216" s="3" t="s">
@@ -25419,10 +25427,10 @@
         <v>1</v>
       </c>
       <c r="U217" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="V217" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
@@ -25432,7 +25440,7 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>27</v>
       </c>
@@ -25494,7 +25502,7 @@
         <v>0</v>
       </c>
       <c r="U218" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="V218" s="3"/>
       <c r="W218" s="3"/>
@@ -25567,10 +25575,10 @@
         <v>1</v>
       </c>
       <c r="U219" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="V219" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="W219" s="3"/>
       <c r="X219" s="3"/>
@@ -25580,7 +25588,7 @@
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>27</v>
       </c>
@@ -25642,7 +25650,7 @@
         <v>0</v>
       </c>
       <c r="U220" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="V220" s="3"/>
       <c r="W220" s="3"/>
@@ -25653,7 +25661,7 @@
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>27</v>
       </c>
@@ -25715,7 +25723,7 @@
         <v>0</v>
       </c>
       <c r="U221" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="V221" s="3"/>
       <c r="W221" s="3"/>
@@ -25726,7 +25734,7 @@
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>27</v>
       </c>
@@ -25788,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="U222" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="V222" s="3"/>
       <c r="W222" s="3"/>
@@ -25799,7 +25807,7 @@
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>27</v>
       </c>
@@ -25861,7 +25869,7 @@
         <v>0</v>
       </c>
       <c r="U223" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="V223" s="3"/>
       <c r="W223" s="3"/>
@@ -25872,7 +25880,7 @@
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>27</v>
       </c>
@@ -25934,7 +25942,7 @@
         <v>0</v>
       </c>
       <c r="U224" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="V224" s="3"/>
       <c r="W224" s="3"/>
@@ -25945,7 +25953,7 @@
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>27</v>
       </c>
@@ -26007,7 +26015,7 @@
         <v>0</v>
       </c>
       <c r="U225" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="V225" s="3"/>
       <c r="W225" s="3"/>
@@ -26018,7 +26026,7 @@
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>27</v>
       </c>
@@ -26080,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="U226" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="V226" s="3"/>
       <c r="W226" s="3"/>
@@ -26091,7 +26099,7 @@
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>27</v>
       </c>
@@ -26153,7 +26161,7 @@
         <v>0</v>
       </c>
       <c r="U227" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="V227" s="3"/>
       <c r="W227" s="3"/>
@@ -26164,7 +26172,7 @@
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>27</v>
       </c>
@@ -26226,7 +26234,7 @@
         <v>0</v>
       </c>
       <c r="U228" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="V228" s="3"/>
       <c r="W228" s="3"/>
@@ -26299,10 +26307,10 @@
         <v>1</v>
       </c>
       <c r="U229" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V229" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
@@ -26312,7 +26320,7 @@
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>27</v>
       </c>
@@ -26374,7 +26382,7 @@
         <v>0</v>
       </c>
       <c r="U230" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V230" s="3"/>
       <c r="W230" s="3"/>
@@ -26385,7 +26393,7 @@
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>27</v>
       </c>
@@ -26447,7 +26455,7 @@
         <v>0</v>
       </c>
       <c r="U231" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="V231" s="3"/>
       <c r="W231" s="3"/>
@@ -26458,7 +26466,7 @@
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>27</v>
       </c>
@@ -26520,7 +26528,7 @@
         <v>0</v>
       </c>
       <c r="U232" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V232" s="3"/>
       <c r="W232" s="3"/>
@@ -26531,7 +26539,7 @@
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>28</v>
       </c>
@@ -26593,7 +26601,7 @@
         <v>0</v>
       </c>
       <c r="U233" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="V233" s="3"/>
       <c r="W233" s="3"/>
@@ -26604,7 +26612,7 @@
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>28</v>
       </c>
@@ -26666,7 +26674,7 @@
         <v>0</v>
       </c>
       <c r="U234" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="V234" s="3"/>
       <c r="W234" s="3"/>
@@ -26677,7 +26685,7 @@
       <c r="AB234" s="3"/>
       <c r="AC234" s="3"/>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>28</v>
       </c>
@@ -26739,7 +26747,7 @@
         <v>0</v>
       </c>
       <c r="U235" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
@@ -26750,7 +26758,7 @@
       <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>28</v>
       </c>
@@ -26812,7 +26820,7 @@
         <v>0</v>
       </c>
       <c r="U236" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V236" s="3"/>
       <c r="W236" s="3"/>
@@ -26823,7 +26831,7 @@
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>28</v>
       </c>
@@ -26885,7 +26893,7 @@
         <v>0</v>
       </c>
       <c r="U237" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V237" s="3"/>
       <c r="W237" s="3"/>
@@ -26958,10 +26966,10 @@
         <v>1</v>
       </c>
       <c r="U238" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="V238" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
@@ -27033,10 +27041,10 @@
         <v>1</v>
       </c>
       <c r="U239" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V239" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
@@ -27046,7 +27054,7 @@
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>28</v>
       </c>
@@ -27108,7 +27116,7 @@
         <v>0</v>
       </c>
       <c r="U240" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V240" s="3"/>
       <c r="W240" s="3"/>
@@ -27119,7 +27127,7 @@
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>28</v>
       </c>
@@ -27181,7 +27189,7 @@
         <v>0</v>
       </c>
       <c r="U241" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V241" s="3"/>
       <c r="W241" s="3"/>
@@ -27192,7 +27200,7 @@
       <c r="AB241" s="3"/>
       <c r="AC241" s="3"/>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>28</v>
       </c>
@@ -27254,7 +27262,7 @@
         <v>0</v>
       </c>
       <c r="U242" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V242" s="3"/>
       <c r="W242" s="3"/>
@@ -27327,10 +27335,10 @@
         <v>1</v>
       </c>
       <c r="U243" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V243" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
@@ -27402,10 +27410,10 @@
         <v>1</v>
       </c>
       <c r="U244" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V244" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
@@ -27415,7 +27423,7 @@
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>28</v>
       </c>
@@ -27477,7 +27485,7 @@
         <v>0</v>
       </c>
       <c r="U245" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
@@ -27488,7 +27496,7 @@
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>28</v>
       </c>
@@ -27550,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="U246" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="V246" s="3"/>
       <c r="W246" s="3"/>
@@ -27623,10 +27631,10 @@
         <v>1</v>
       </c>
       <c r="U247" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V247" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="W247" s="3"/>
       <c r="X247" s="3"/>
@@ -27698,10 +27706,10 @@
         <v>1</v>
       </c>
       <c r="U248" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V248" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="W248" s="3"/>
       <c r="X248" s="3"/>
@@ -27711,7 +27719,7 @@
       <c r="AB248" s="3"/>
       <c r="AC248" s="3"/>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>28</v>
       </c>
@@ -27773,7 +27781,7 @@
         <v>0</v>
       </c>
       <c r="U249" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="V249" s="3"/>
       <c r="W249" s="3"/>
@@ -27846,10 +27854,10 @@
         <v>1</v>
       </c>
       <c r="U250" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V250" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
@@ -27921,10 +27929,10 @@
         <v>1</v>
       </c>
       <c r="U251" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V251" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="W251" s="3"/>
       <c r="X251" s="3"/>
@@ -27934,7 +27942,7 @@
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>29</v>
       </c>
@@ -27996,11 +28004,11 @@
         <v>0</v>
       </c>
       <c r="U252" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V252" s="3"/>
       <c r="W252" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
@@ -28071,10 +28079,10 @@
         <v>1</v>
       </c>
       <c r="U253" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="V253" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="W253" s="3"/>
       <c r="X253" s="3"/>
@@ -28146,10 +28154,10 @@
         <v>1</v>
       </c>
       <c r="U254" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="V254" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="W254" s="3"/>
       <c r="X254" s="3"/>
@@ -28221,10 +28229,10 @@
         <v>1</v>
       </c>
       <c r="U255" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V255" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="W255" s="3"/>
       <c r="X255" s="3"/>
@@ -28234,7 +28242,7 @@
       <c r="AB255" s="3"/>
       <c r="AC255" s="3"/>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>30</v>
       </c>
@@ -28296,11 +28304,11 @@
         <v>22</v>
       </c>
       <c r="U256" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="V256" s="3"/>
       <c r="W256" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
@@ -28309,7 +28317,7 @@
       <c r="AB256" s="3"/>
       <c r="AC256" s="3"/>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>31</v>
       </c>
@@ -28371,7 +28379,7 @@
         <v>0</v>
       </c>
       <c r="U257" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
@@ -28382,7 +28390,7 @@
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>31</v>
       </c>
@@ -28444,7 +28452,7 @@
         <v>0</v>
       </c>
       <c r="U258" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V258" s="3"/>
       <c r="W258" s="3"/>
@@ -28455,7 +28463,7 @@
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>32</v>
       </c>
@@ -28517,7 +28525,7 @@
         <v>0</v>
       </c>
       <c r="U259" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="V259" s="3"/>
       <c r="W259" s="3"/>
@@ -28528,7 +28536,7 @@
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>33</v>
       </c>
@@ -28590,11 +28598,11 @@
         <v>22</v>
       </c>
       <c r="U260" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="V260" s="3"/>
       <c r="W260" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
@@ -28603,7 +28611,7 @@
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>33</v>
       </c>
@@ -28665,11 +28673,11 @@
         <v>22</v>
       </c>
       <c r="U261" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="V261" s="3"/>
       <c r="W261" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
@@ -28678,7 +28686,7 @@
       <c r="AB261" s="3"/>
       <c r="AC261" s="3"/>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>34</v>
       </c>
@@ -28740,11 +28748,11 @@
         <v>22</v>
       </c>
       <c r="U262" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="V262" s="3"/>
       <c r="W262" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="X262" s="3"/>
       <c r="Y262" s="3"/>
@@ -28753,7 +28761,7 @@
       <c r="AB262" s="3"/>
       <c r="AC262" s="3"/>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>34</v>
       </c>
@@ -28815,11 +28823,11 @@
         <v>22</v>
       </c>
       <c r="U263" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="V263" s="3"/>
       <c r="W263" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="X263" s="3"/>
       <c r="Y263" s="3"/>
@@ -28828,7 +28836,7 @@
       <c r="AB263" s="3"/>
       <c r="AC263" s="3"/>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>34</v>
       </c>
@@ -28890,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="U264" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V264" s="3"/>
       <c r="W264" s="3" t="s">
@@ -28903,7 +28911,7 @@
       <c r="AB264" s="3"/>
       <c r="AC264" s="3"/>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>35</v>
       </c>
@@ -28965,7 +28973,7 @@
         <v>0</v>
       </c>
       <c r="U265" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V265" s="3"/>
       <c r="W265" s="3"/>
@@ -28976,7 +28984,7 @@
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
     </row>
-    <row r="266" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>35</v>
       </c>
@@ -29038,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="U266" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="V266" s="3"/>
       <c r="W266" s="3"/>
@@ -29049,7 +29057,7 @@
       <c r="AB266" s="3"/>
       <c r="AC266" s="3"/>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>35</v>
       </c>
@@ -29111,7 +29119,7 @@
         <v>0</v>
       </c>
       <c r="U267" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="V267" s="3"/>
       <c r="W267" s="3"/>
@@ -29184,13 +29192,13 @@
         <v>1</v>
       </c>
       <c r="U268" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="V268" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="V268" s="3" t="s">
-        <v>693</v>
-      </c>
       <c r="W268" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
@@ -29199,7 +29207,7 @@
       <c r="AB268" s="3"/>
       <c r="AC268" s="3"/>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>36</v>
       </c>
@@ -29261,7 +29269,7 @@
         <v>0</v>
       </c>
       <c r="U269" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="V269" s="3"/>
       <c r="W269" s="3"/>
@@ -29272,7 +29280,7 @@
       <c r="AB269" s="3"/>
       <c r="AC269" s="3"/>
     </row>
-    <row r="270" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>37</v>
       </c>
@@ -29334,7 +29342,7 @@
         <v>0</v>
       </c>
       <c r="U270" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="V270" s="3"/>
       <c r="W270" s="3"/>
@@ -29345,7 +29353,7 @@
       <c r="AB270" s="3"/>
       <c r="AC270" s="3"/>
     </row>
-    <row r="271" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>37</v>
       </c>
@@ -29407,7 +29415,7 @@
         <v>0</v>
       </c>
       <c r="U271" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="V271" s="3"/>
       <c r="W271" s="3"/>
@@ -29418,7 +29426,7 @@
       <c r="AB271" s="3"/>
       <c r="AC271" s="3"/>
     </row>
-    <row r="272" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>37</v>
       </c>
@@ -29480,7 +29488,7 @@
         <v>0</v>
       </c>
       <c r="U272" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="V272" s="3"/>
       <c r="W272" s="3"/>
@@ -29491,7 +29499,7 @@
       <c r="AB272" s="3"/>
       <c r="AC272" s="3"/>
     </row>
-    <row r="273" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>37</v>
       </c>
@@ -29553,7 +29561,7 @@
         <v>0</v>
       </c>
       <c r="U273" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="V273" s="3"/>
       <c r="W273" s="3"/>
@@ -29564,7 +29572,7 @@
       <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>37</v>
       </c>
@@ -29626,7 +29634,7 @@
         <v>0</v>
       </c>
       <c r="U274" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V274" s="3"/>
       <c r="W274" s="3"/>
@@ -29637,7 +29645,7 @@
       <c r="AB274" s="3"/>
       <c r="AC274" s="3"/>
     </row>
-    <row r="275" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>37</v>
       </c>
@@ -29699,7 +29707,7 @@
         <v>0</v>
       </c>
       <c r="U275" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="V275" s="3"/>
       <c r="W275" s="3"/>
@@ -29710,7 +29718,7 @@
       <c r="AB275" s="3"/>
       <c r="AC275" s="3"/>
     </row>
-    <row r="276" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>37</v>
       </c>
@@ -29772,7 +29780,7 @@
         <v>0</v>
       </c>
       <c r="U276" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="V276" s="3"/>
       <c r="W276" s="3"/>
@@ -29783,7 +29791,7 @@
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
     </row>
-    <row r="277" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>37</v>
       </c>
@@ -29845,7 +29853,7 @@
         <v>0</v>
       </c>
       <c r="U277" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="V277" s="3"/>
       <c r="W277" s="3"/>
@@ -29856,7 +29864,7 @@
       <c r="AB277" s="3"/>
       <c r="AC277" s="3"/>
     </row>
-    <row r="278" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>37</v>
       </c>
@@ -29918,7 +29926,7 @@
         <v>0</v>
       </c>
       <c r="U278" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="V278" s="3"/>
       <c r="W278" s="3"/>
@@ -29929,7 +29937,7 @@
       <c r="AB278" s="3"/>
       <c r="AC278" s="3"/>
     </row>
-    <row r="279" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>37</v>
       </c>
@@ -29991,7 +29999,7 @@
         <v>0</v>
       </c>
       <c r="U279" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="V279" s="3"/>
       <c r="W279" s="3"/>
@@ -30002,7 +30010,7 @@
       <c r="AB279" s="3"/>
       <c r="AC279" s="3"/>
     </row>
-    <row r="280" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>37</v>
       </c>
@@ -30064,11 +30072,11 @@
         <v>22</v>
       </c>
       <c r="U280" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="V280" s="3"/>
       <c r="W280" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X280" s="3"/>
       <c r="Y280" s="3"/>
@@ -30077,7 +30085,7 @@
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
     </row>
-    <row r="281" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>37</v>
       </c>
@@ -30139,11 +30147,11 @@
         <v>22</v>
       </c>
       <c r="U281" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="V281" s="3"/>
       <c r="W281" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X281" s="3"/>
       <c r="Y281" s="3"/>
@@ -30152,7 +30160,7 @@
       <c r="AB281" s="3"/>
       <c r="AC281" s="3"/>
     </row>
-    <row r="282" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>37</v>
       </c>
@@ -30214,11 +30222,11 @@
         <v>22</v>
       </c>
       <c r="U282" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="V282" s="3"/>
       <c r="W282" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X282" s="3"/>
       <c r="Y282" s="3"/>
@@ -30227,7 +30235,7 @@
       <c r="AB282" s="3"/>
       <c r="AC282" s="3"/>
     </row>
-    <row r="283" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>37</v>
       </c>
@@ -30289,11 +30297,11 @@
         <v>22</v>
       </c>
       <c r="U283" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="V283" s="3"/>
       <c r="W283" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X283" s="3"/>
       <c r="Y283" s="3"/>
@@ -30302,7 +30310,7 @@
       <c r="AB283" s="3"/>
       <c r="AC283" s="3"/>
     </row>
-    <row r="284" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>37</v>
       </c>
@@ -30364,11 +30372,11 @@
         <v>22</v>
       </c>
       <c r="U284" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="V284" s="3"/>
       <c r="W284" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X284" s="3"/>
       <c r="Y284" s="3"/>
@@ -30377,7 +30385,7 @@
       <c r="AB284" s="3"/>
       <c r="AC284" s="3"/>
     </row>
-    <row r="285" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>37</v>
       </c>
@@ -30439,7 +30447,7 @@
         <v>0</v>
       </c>
       <c r="U285" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="V285" s="3"/>
       <c r="W285" s="3"/>
@@ -30450,7 +30458,7 @@
       <c r="AB285" s="3"/>
       <c r="AC285" s="3"/>
     </row>
-    <row r="286" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>37</v>
       </c>
@@ -30512,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="U286" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="V286" s="3"/>
       <c r="W286" s="3"/>
@@ -30523,7 +30531,7 @@
       <c r="AB286" s="3"/>
       <c r="AC286" s="3"/>
     </row>
-    <row r="287" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>37</v>
       </c>
@@ -30585,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U287" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="V287" s="3"/>
       <c r="W287" s="3"/>
@@ -30596,7 +30604,7 @@
       <c r="AB287" s="3"/>
       <c r="AC287" s="3"/>
     </row>
-    <row r="288" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>37</v>
       </c>
@@ -30658,7 +30666,7 @@
         <v>0</v>
       </c>
       <c r="U288" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="V288" s="3"/>
       <c r="W288" s="3"/>
@@ -30669,7 +30677,7 @@
       <c r="AB288" s="3"/>
       <c r="AC288" s="3"/>
     </row>
-    <row r="289" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>37</v>
       </c>
@@ -30731,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="U289" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="V289" s="3"/>
       <c r="W289" s="3"/>
@@ -30742,7 +30750,7 @@
       <c r="AB289" s="3"/>
       <c r="AC289" s="3"/>
     </row>
-    <row r="290" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>37</v>
       </c>
@@ -30804,11 +30812,11 @@
         <v>0</v>
       </c>
       <c r="U290" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="V290" s="3"/>
       <c r="W290" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="X290" s="3"/>
       <c r="Y290" s="3"/>
@@ -30817,7 +30825,7 @@
       <c r="AB290" s="3"/>
       <c r="AC290" s="3"/>
     </row>
-    <row r="291" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>37</v>
       </c>
@@ -30879,7 +30887,7 @@
         <v>0</v>
       </c>
       <c r="U291" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="V291" s="3"/>
       <c r="W291" s="3"/>
@@ -30890,7 +30898,7 @@
       <c r="AB291" s="3"/>
       <c r="AC291" s="3"/>
     </row>
-    <row r="292" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>37</v>
       </c>
@@ -30952,7 +30960,7 @@
         <v>0</v>
       </c>
       <c r="U292" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="V292" s="3"/>
       <c r="W292" s="3"/>
@@ -30963,7 +30971,7 @@
       <c r="AB292" s="3"/>
       <c r="AC292" s="3"/>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>37</v>
       </c>
@@ -31025,7 +31033,7 @@
         <v>0</v>
       </c>
       <c r="U293" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="V293" s="3"/>
       <c r="W293" s="3"/>
@@ -31036,7 +31044,7 @@
       <c r="AB293" s="3"/>
       <c r="AC293" s="3"/>
     </row>
-    <row r="294" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>37</v>
       </c>
@@ -31098,7 +31106,7 @@
         <v>0</v>
       </c>
       <c r="U294" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="V294" s="3"/>
       <c r="W294" s="3"/>
@@ -31109,7 +31117,7 @@
       <c r="AB294" s="3"/>
       <c r="AC294" s="3"/>
     </row>
-    <row r="295" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>37</v>
       </c>
@@ -31171,7 +31179,7 @@
         <v>0</v>
       </c>
       <c r="U295" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="V295" s="3"/>
       <c r="W295" s="3"/>
@@ -31182,7 +31190,7 @@
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
     </row>
-    <row r="296" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>37</v>
       </c>
@@ -31244,7 +31252,7 @@
         <v>0</v>
       </c>
       <c r="U296" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="V296" s="3"/>
       <c r="W296" s="3"/>
@@ -31255,7 +31263,7 @@
       <c r="AB296" s="3"/>
       <c r="AC296" s="3"/>
     </row>
-    <row r="297" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>37</v>
       </c>
@@ -31317,7 +31325,7 @@
         <v>0</v>
       </c>
       <c r="U297" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="V297" s="3"/>
       <c r="W297" s="3"/>
@@ -31328,7 +31336,7 @@
       <c r="AB297" s="3"/>
       <c r="AC297" s="3"/>
     </row>
-    <row r="298" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>37</v>
       </c>
@@ -31390,7 +31398,7 @@
         <v>0</v>
       </c>
       <c r="U298" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V298" s="3"/>
       <c r="W298" s="3"/>
@@ -31401,7 +31409,7 @@
       <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
     </row>
-    <row r="299" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>37</v>
       </c>
@@ -31463,7 +31471,7 @@
         <v>0</v>
       </c>
       <c r="U299" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V299" s="3"/>
       <c r="W299" s="3"/>
@@ -31474,7 +31482,7 @@
       <c r="AB299" s="3"/>
       <c r="AC299" s="3"/>
     </row>
-    <row r="300" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>37</v>
       </c>
@@ -31536,7 +31544,7 @@
         <v>0</v>
       </c>
       <c r="U300" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V300" s="3"/>
       <c r="W300" s="3"/>
@@ -31547,7 +31555,7 @@
       <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
     </row>
-    <row r="301" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>37</v>
       </c>
@@ -31609,7 +31617,7 @@
         <v>0</v>
       </c>
       <c r="U301" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V301" s="3"/>
       <c r="W301" s="3"/>
@@ -31620,7 +31628,7 @@
       <c r="AB301" s="3"/>
       <c r="AC301" s="3"/>
     </row>
-    <row r="302" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>37</v>
       </c>
@@ -31682,7 +31690,7 @@
         <v>0</v>
       </c>
       <c r="U302" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="V302" s="3"/>
       <c r="W302" s="3"/>
@@ -31693,7 +31701,7 @@
       <c r="AB302" s="3"/>
       <c r="AC302" s="3"/>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>38</v>
       </c>
@@ -31755,7 +31763,7 @@
         <v>0</v>
       </c>
       <c r="U303" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="V303" s="3"/>
       <c r="W303" s="3"/>
@@ -31766,7 +31774,7 @@
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>38</v>
       </c>
@@ -31828,7 +31836,7 @@
         <v>0</v>
       </c>
       <c r="U304" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="V304" s="3"/>
       <c r="W304" s="3"/>
@@ -31839,7 +31847,7 @@
       <c r="AB304" s="3"/>
       <c r="AC304" s="3"/>
     </row>
-    <row r="305" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>39</v>
       </c>
@@ -31901,7 +31909,7 @@
         <v>0</v>
       </c>
       <c r="U305" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="V305" s="3"/>
       <c r="W305" s="3" t="s">
@@ -31914,7 +31922,7 @@
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
     </row>
-    <row r="306" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>39</v>
       </c>
@@ -31976,7 +31984,7 @@
         <v>0</v>
       </c>
       <c r="U306" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V306" s="3"/>
       <c r="W306" s="3" t="s">
@@ -31989,7 +31997,7 @@
       <c r="AB306" s="3"/>
       <c r="AC306" s="3"/>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>39</v>
       </c>
@@ -32051,7 +32059,7 @@
         <v>0</v>
       </c>
       <c r="U307" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="V307" s="3"/>
       <c r="W307" s="3" t="s">
@@ -32126,10 +32134,10 @@
         <v>1</v>
       </c>
       <c r="U308" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="V308" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="V308" s="3" t="s">
-        <v>701</v>
       </c>
       <c r="W308" s="3"/>
       <c r="X308" s="3"/>
@@ -32139,7 +32147,7 @@
       <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>40</v>
       </c>
@@ -32201,7 +32209,7 @@
         <v>0</v>
       </c>
       <c r="U309" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="V309" s="3"/>
       <c r="W309" s="3"/>
@@ -32274,10 +32282,10 @@
         <v>1</v>
       </c>
       <c r="U310" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="V310" s="3" t="s">
         <v>1023</v>
-      </c>
-      <c r="V310" s="3" t="s">
-        <v>1024</v>
       </c>
       <c r="W310" s="3"/>
       <c r="X310" s="3"/>
@@ -32349,10 +32357,10 @@
         <v>1</v>
       </c>
       <c r="U311" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="V311" s="3" t="s">
         <v>1025</v>
-      </c>
-      <c r="V311" s="3" t="s">
-        <v>1026</v>
       </c>
       <c r="W311" s="3"/>
       <c r="X311" s="3"/>
@@ -32362,7 +32370,7 @@
       <c r="AB311" s="3"/>
       <c r="AC311" s="3"/>
     </row>
-    <row r="312" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>41</v>
       </c>
@@ -32424,7 +32432,7 @@
         <v>0</v>
       </c>
       <c r="U312" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V312" s="3"/>
       <c r="W312" s="3"/>
@@ -32435,7 +32443,7 @@
       <c r="AB312" s="3"/>
       <c r="AC312" s="3"/>
     </row>
-    <row r="313" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>41</v>
       </c>
@@ -32497,7 +32505,7 @@
         <v>0</v>
       </c>
       <c r="U313" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="V313" s="3"/>
       <c r="W313" s="3"/>
@@ -32508,7 +32516,7 @@
       <c r="AB313" s="3"/>
       <c r="AC313" s="3"/>
     </row>
-    <row r="314" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>41</v>
       </c>
@@ -32570,7 +32578,7 @@
         <v>0</v>
       </c>
       <c r="U314" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="V314" s="3"/>
       <c r="W314" s="3"/>
@@ -32581,7 +32589,7 @@
       <c r="AB314" s="3"/>
       <c r="AC314" s="3"/>
     </row>
-    <row r="315" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>41</v>
       </c>
@@ -32643,7 +32651,7 @@
         <v>0</v>
       </c>
       <c r="U315" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="V315" s="3"/>
       <c r="W315" s="3"/>
@@ -32654,7 +32662,7 @@
       <c r="AB315" s="3"/>
       <c r="AC315" s="3"/>
     </row>
-    <row r="316" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>41</v>
       </c>
@@ -32716,7 +32724,7 @@
         <v>0</v>
       </c>
       <c r="U316" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="V316" s="3"/>
       <c r="W316" s="3"/>
@@ -32727,7 +32735,7 @@
       <c r="AB316" s="3"/>
       <c r="AC316" s="3"/>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>41</v>
       </c>
@@ -32789,7 +32797,7 @@
         <v>0</v>
       </c>
       <c r="U317" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V317" s="3"/>
       <c r="W317" s="3"/>
@@ -32800,7 +32808,7 @@
       <c r="AB317" s="3"/>
       <c r="AC317" s="3"/>
     </row>
-    <row r="318" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>42</v>
       </c>
@@ -32862,11 +32870,11 @@
         <v>22</v>
       </c>
       <c r="U318" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="V318" s="3"/>
       <c r="W318" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="X318" s="3"/>
       <c r="Y318" s="3"/>
@@ -32875,7 +32883,7 @@
       <c r="AB318" s="3"/>
       <c r="AC318" s="3"/>
     </row>
-    <row r="319" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>43</v>
       </c>
@@ -32937,11 +32945,11 @@
         <v>0</v>
       </c>
       <c r="U319" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V319" s="3"/>
       <c r="W319" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="X319" s="3"/>
       <c r="Y319" s="3"/>
@@ -33012,10 +33020,10 @@
         <v>1</v>
       </c>
       <c r="U320" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="V320" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="V320" s="3" t="s">
-        <v>704</v>
       </c>
       <c r="W320" s="3"/>
       <c r="X320" s="3"/>
@@ -33066,7 +33074,7 @@
         <v>6.2760332314812902E-3</v>
       </c>
       <c r="N321" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O321" s="3" t="s">
         <v>26</v>
@@ -33085,10 +33093,10 @@
         <v>1</v>
       </c>
       <c r="U321" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V321" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W321" s="3"/>
       <c r="X321" s="3"/>
@@ -33098,7 +33106,7 @@
       <c r="AB321" s="3"/>
       <c r="AC321" s="3"/>
     </row>
-    <row r="322" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>45</v>
       </c>
@@ -33139,7 +33147,7 @@
         <v>7.6228706871091095E-2</v>
       </c>
       <c r="N322" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O322" s="3" t="s">
         <v>33</v>
@@ -33158,7 +33166,7 @@
         <v>0</v>
       </c>
       <c r="U322" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="V322" s="3"/>
       <c r="W322" s="3"/>
@@ -33231,10 +33239,10 @@
         <v>1</v>
       </c>
       <c r="U323" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="V323" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W323" s="3"/>
       <c r="X323" s="3"/>
@@ -33306,13 +33314,13 @@
         <v>1</v>
       </c>
       <c r="U324" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V324" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W324" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="X324" s="3"/>
       <c r="Y324" s="3"/>
@@ -33383,10 +33391,10 @@
         <v>1</v>
       </c>
       <c r="U325" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V325" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W325" s="3"/>
       <c r="X325" s="3"/>
@@ -33458,10 +33466,10 @@
         <v>1</v>
       </c>
       <c r="U326" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="V326" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W326" s="3"/>
       <c r="X326" s="3"/>
@@ -33533,10 +33541,10 @@
         <v>1</v>
       </c>
       <c r="U327" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V327" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W327" s="3"/>
       <c r="X327" s="3"/>
@@ -33608,10 +33616,10 @@
         <v>1</v>
       </c>
       <c r="U328" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V328" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W328" s="3"/>
       <c r="X328" s="3"/>
@@ -33683,11 +33691,11 @@
         <v>0</v>
       </c>
       <c r="U329" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V329" s="3"/>
       <c r="W329" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="X329" s="3"/>
       <c r="Y329" s="3"/>
@@ -33758,7 +33766,7 @@
         <v>0</v>
       </c>
       <c r="U330" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V330" s="3"/>
       <c r="W330" s="3" t="s">
@@ -33833,7 +33841,7 @@
         <v>0</v>
       </c>
       <c r="U331" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V331" s="3"/>
       <c r="W331" s="3" t="s">
@@ -33908,10 +33916,10 @@
         <v>0</v>
       </c>
       <c r="U332" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V332" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="W332" s="3" t="s">
         <v>628</v>
@@ -33985,7 +33993,7 @@
         <v>0</v>
       </c>
       <c r="U333" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="V333" s="3"/>
       <c r="W333" s="3"/>
@@ -34058,7 +34066,7 @@
         <v>0</v>
       </c>
       <c r="U334" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="V334" s="3"/>
       <c r="W334" s="3"/>
@@ -34131,7 +34139,7 @@
         <v>0</v>
       </c>
       <c r="U335" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="V335" s="3"/>
       <c r="W335" s="3" t="s">
@@ -34144,7 +34152,7 @@
       <c r="AB335" s="3"/>
       <c r="AC335" s="3"/>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>47</v>
       </c>
@@ -34206,11 +34214,11 @@
         <v>0</v>
       </c>
       <c r="U336" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V336" s="3"/>
       <c r="W336" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
@@ -34219,7 +34227,7 @@
       <c r="AB336" s="3"/>
       <c r="AC336" s="3"/>
     </row>
-    <row r="337" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>47</v>
       </c>
@@ -34260,7 +34268,7 @@
         <v>0.35866470208680901</v>
       </c>
       <c r="N337" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O337" s="3" t="s">
         <v>26</v>
@@ -34281,7 +34289,7 @@
         <v>0</v>
       </c>
       <c r="U337" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="V337" s="3"/>
       <c r="W337" s="3"/>
@@ -34292,7 +34300,7 @@
       <c r="AB337" s="3"/>
       <c r="AC337" s="3"/>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>48</v>
       </c>
@@ -34354,7 +34362,7 @@
         <v>0</v>
       </c>
       <c r="U338" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="V338" s="3"/>
       <c r="W338" s="3"/>
@@ -34365,7 +34373,7 @@
       <c r="AB338" s="3"/>
       <c r="AC338" s="3"/>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>48</v>
       </c>
@@ -34427,7 +34435,7 @@
         <v>0</v>
       </c>
       <c r="U339" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="V339" s="3"/>
       <c r="W339" s="3"/>
@@ -34438,7 +34446,7 @@
       <c r="AB339" s="3"/>
       <c r="AC339" s="3"/>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>48</v>
       </c>
@@ -34500,7 +34508,7 @@
         <v>0</v>
       </c>
       <c r="U340" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="V340" s="3"/>
       <c r="W340" s="3"/>
@@ -34511,7 +34519,7 @@
       <c r="AB340" s="3"/>
       <c r="AC340" s="3"/>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>48</v>
       </c>
@@ -34573,7 +34581,7 @@
         <v>0</v>
       </c>
       <c r="U341" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="V341" s="3"/>
       <c r="W341" s="3"/>
@@ -34584,7 +34592,7 @@
       <c r="AB341" s="3"/>
       <c r="AC341" s="3"/>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>48</v>
       </c>
@@ -34646,7 +34654,7 @@
         <v>0</v>
       </c>
       <c r="U342" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="V342" s="3"/>
       <c r="W342" s="3"/>
@@ -34657,7 +34665,7 @@
       <c r="AB342" s="3"/>
       <c r="AC342" s="3"/>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>48</v>
       </c>
@@ -34719,7 +34727,7 @@
         <v>0</v>
       </c>
       <c r="U343" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="V343" s="3"/>
       <c r="W343" s="3"/>
@@ -34730,7 +34738,7 @@
       <c r="AB343" s="3"/>
       <c r="AC343" s="3"/>
     </row>
-    <row r="344" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>49</v>
       </c>
@@ -34792,7 +34800,7 @@
         <v>0</v>
       </c>
       <c r="U344" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="V344" s="3"/>
       <c r="W344" s="3"/>
@@ -34803,7 +34811,7 @@
       <c r="AB344" s="3"/>
       <c r="AC344" s="3"/>
     </row>
-    <row r="345" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>49</v>
       </c>
@@ -34865,7 +34873,7 @@
         <v>0</v>
       </c>
       <c r="U345" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="V345" s="3"/>
       <c r="W345" s="3" t="s">
@@ -34878,7 +34886,7 @@
       <c r="AB345" s="3"/>
       <c r="AC345" s="3"/>
     </row>
-    <row r="346" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>49</v>
       </c>
@@ -34940,7 +34948,7 @@
         <v>0</v>
       </c>
       <c r="U346" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="V346" s="3"/>
       <c r="W346" s="3" t="s">
@@ -34953,7 +34961,7 @@
       <c r="AB346" s="3"/>
       <c r="AC346" s="3"/>
     </row>
-    <row r="347" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>49</v>
       </c>
@@ -35015,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="U347" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="V347" s="3"/>
       <c r="W347" s="3" t="s">
@@ -35028,7 +35036,7 @@
       <c r="AB347" s="3"/>
       <c r="AC347" s="3"/>
     </row>
-    <row r="348" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>49</v>
       </c>
@@ -35090,7 +35098,7 @@
         <v>0</v>
       </c>
       <c r="U348" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="V348" s="3"/>
       <c r="W348" s="3" t="s">
@@ -35103,7 +35111,7 @@
       <c r="AB348" s="3"/>
       <c r="AC348" s="3"/>
     </row>
-    <row r="349" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>49</v>
       </c>
@@ -35165,11 +35173,11 @@
         <v>22</v>
       </c>
       <c r="U349" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="V349" s="3"/>
       <c r="W349" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X349" s="3"/>
       <c r="Y349" s="3"/>
@@ -35178,7 +35186,7 @@
       <c r="AB349" s="3"/>
       <c r="AC349" s="3"/>
     </row>
-    <row r="350" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>49</v>
       </c>
@@ -35240,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="U350" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="V350" s="3"/>
       <c r="W350" s="3" t="s">
@@ -35253,7 +35261,7 @@
       <c r="AB350" s="3"/>
       <c r="AC350" s="3"/>
     </row>
-    <row r="351" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>49</v>
       </c>
@@ -35315,7 +35323,7 @@
         <v>0</v>
       </c>
       <c r="U351" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V351" s="3"/>
       <c r="W351" s="3" t="s">
@@ -35328,7 +35336,7 @@
       <c r="AB351" s="3"/>
       <c r="AC351" s="3"/>
     </row>
-    <row r="352" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>49</v>
       </c>
@@ -35390,7 +35398,7 @@
         <v>0</v>
       </c>
       <c r="U352" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V352" s="3"/>
       <c r="W352" s="3" t="s">
@@ -35403,7 +35411,7 @@
       <c r="AB352" s="3"/>
       <c r="AC352" s="3"/>
     </row>
-    <row r="353" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>50</v>
       </c>
@@ -35465,11 +35473,11 @@
         <v>0</v>
       </c>
       <c r="U353" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="V353" s="3"/>
       <c r="W353" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="X353" s="3"/>
       <c r="Y353" s="3"/>
@@ -35478,7 +35486,7 @@
       <c r="AB353" s="3"/>
       <c r="AC353" s="3"/>
     </row>
-    <row r="354" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>50</v>
       </c>
@@ -35540,7 +35548,7 @@
         <v>0</v>
       </c>
       <c r="U354" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="V354" s="3"/>
       <c r="W354" s="3" t="s">
@@ -35553,7 +35561,7 @@
       <c r="AB354" s="3"/>
       <c r="AC354" s="3"/>
     </row>
-    <row r="355" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>50</v>
       </c>
@@ -35615,7 +35623,7 @@
         <v>0</v>
       </c>
       <c r="U355" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="V355" s="3"/>
       <c r="W355" s="3" t="s">
@@ -35628,7 +35636,7 @@
       <c r="AB355" s="3"/>
       <c r="AC355" s="3"/>
     </row>
-    <row r="356" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>50</v>
       </c>
@@ -35690,7 +35698,7 @@
         <v>0</v>
       </c>
       <c r="U356" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V356" s="3"/>
       <c r="W356" s="3" t="s">
@@ -35703,7 +35711,7 @@
       <c r="AB356" s="3"/>
       <c r="AC356" s="3"/>
     </row>
-    <row r="357" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>50</v>
       </c>
@@ -35765,7 +35773,7 @@
         <v>0</v>
       </c>
       <c r="U357" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V357" s="3"/>
       <c r="W357" s="3" t="s">
@@ -35778,7 +35786,7 @@
       <c r="AB357" s="3"/>
       <c r="AC357" s="3"/>
     </row>
-    <row r="358" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>50</v>
       </c>
@@ -35840,7 +35848,7 @@
         <v>0</v>
       </c>
       <c r="U358" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V358" s="3"/>
       <c r="W358" s="3" t="s">
@@ -35853,7 +35861,7 @@
       <c r="AB358" s="3"/>
       <c r="AC358" s="3"/>
     </row>
-    <row r="359" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>50</v>
       </c>
@@ -35915,7 +35923,7 @@
         <v>0</v>
       </c>
       <c r="U359" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="V359" s="3"/>
       <c r="W359" s="3" t="s">
@@ -35928,7 +35936,7 @@
       <c r="AB359" s="3"/>
       <c r="AC359" s="3"/>
     </row>
-    <row r="360" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>50</v>
       </c>
@@ -35990,7 +35998,7 @@
         <v>0</v>
       </c>
       <c r="U360" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="V360" s="3"/>
       <c r="W360" s="3" t="s">
@@ -36003,7 +36011,7 @@
       <c r="AB360" s="3"/>
       <c r="AC360" s="3"/>
     </row>
-    <row r="361" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>50</v>
       </c>
@@ -36065,7 +36073,7 @@
         <v>0</v>
       </c>
       <c r="U361" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="V361" s="3"/>
       <c r="W361" s="3" t="s">
@@ -36078,7 +36086,7 @@
       <c r="AB361" s="3"/>
       <c r="AC361" s="3"/>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>51</v>
       </c>
@@ -36140,7 +36148,7 @@
         <v>0</v>
       </c>
       <c r="U362" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V362" s="3"/>
       <c r="W362" s="3"/>
@@ -36151,7 +36159,7 @@
       <c r="AB362" s="3"/>
       <c r="AC362" s="3"/>
     </row>
-    <row r="363" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>51</v>
       </c>
@@ -36213,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="U363" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="V363" s="3"/>
       <c r="W363" s="3"/>
@@ -36224,7 +36232,7 @@
       <c r="AB363" s="3"/>
       <c r="AC363" s="3"/>
     </row>
-    <row r="364" spans="1:29" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:29" ht="15.6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>51</v>
       </c>
@@ -36286,7 +36294,7 @@
         <v>0</v>
       </c>
       <c r="U364" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="V364" s="3"/>
       <c r="W364" s="3"/>
@@ -36297,7 +36305,7 @@
       <c r="AB364" s="3"/>
       <c r="AC364" s="3"/>
     </row>
-    <row r="365" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>52</v>
       </c>
@@ -36359,11 +36367,11 @@
         <v>0</v>
       </c>
       <c r="U365" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="V365" s="3"/>
       <c r="W365" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="X365" s="3"/>
       <c r="Y365" s="3"/>
@@ -36372,7 +36380,7 @@
       <c r="AB365" s="3"/>
       <c r="AC365" s="3"/>
     </row>
-    <row r="366" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>52</v>
       </c>
@@ -36434,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="U366" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="V366" s="3"/>
       <c r="W366" s="3" t="s">
@@ -36447,7 +36455,7 @@
       <c r="AB366" s="3"/>
       <c r="AC366" s="3"/>
     </row>
-    <row r="367" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>52</v>
       </c>
@@ -36509,7 +36517,7 @@
         <v>0</v>
       </c>
       <c r="U367" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="V367" s="3"/>
       <c r="W367" s="3" t="s">
@@ -36522,7 +36530,7 @@
       <c r="AB367" s="3"/>
       <c r="AC367" s="3"/>
     </row>
-    <row r="368" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>52</v>
       </c>
@@ -36584,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="U368" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="V368" s="3"/>
       <c r="W368" s="3" t="s">
@@ -36597,7 +36605,7 @@
       <c r="AB368" s="3"/>
       <c r="AC368" s="3"/>
     </row>
-    <row r="369" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>52</v>
       </c>
@@ -36659,7 +36667,7 @@
         <v>0</v>
       </c>
       <c r="U369" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="V369" s="3"/>
       <c r="W369" s="3"/>
@@ -36670,7 +36678,7 @@
       <c r="AB369" s="3"/>
       <c r="AC369" s="3"/>
     </row>
-    <row r="370" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>52</v>
       </c>
@@ -36732,7 +36740,7 @@
         <v>0</v>
       </c>
       <c r="U370" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="V370" s="3"/>
       <c r="W370" s="3"/>
@@ -36743,7 +36751,7 @@
       <c r="AB370" s="3"/>
       <c r="AC370" s="3"/>
     </row>
-    <row r="371" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>53</v>
       </c>
@@ -36805,7 +36813,7 @@
         <v>0</v>
       </c>
       <c r="U371" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="V371" s="3"/>
       <c r="W371" s="3"/>
@@ -36816,7 +36824,7 @@
       <c r="AB371" s="3"/>
       <c r="AC371" s="3"/>
     </row>
-    <row r="372" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>53</v>
       </c>
@@ -36878,7 +36886,7 @@
         <v>0</v>
       </c>
       <c r="U372" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="V372" s="3"/>
       <c r="W372" s="3"/>
@@ -36889,7 +36897,7 @@
       <c r="AB372" s="3"/>
       <c r="AC372" s="3"/>
     </row>
-    <row r="373" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>53</v>
       </c>
@@ -36951,7 +36959,7 @@
         <v>0</v>
       </c>
       <c r="U373" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="V373" s="3"/>
       <c r="W373" s="3"/>
@@ -36962,7 +36970,7 @@
       <c r="AB373" s="3"/>
       <c r="AC373" s="3"/>
     </row>
-    <row r="374" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>53</v>
       </c>
@@ -37024,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="U374" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="V374" s="3"/>
       <c r="W374" s="3"/>
@@ -37035,7 +37043,7 @@
       <c r="AB374" s="3"/>
       <c r="AC374" s="3"/>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>54</v>
       </c>
@@ -37097,7 +37105,7 @@
         <v>0</v>
       </c>
       <c r="U375" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V375" s="3"/>
       <c r="W375" s="3"/>
@@ -37108,7 +37116,7 @@
       <c r="AB375" s="3"/>
       <c r="AC375" s="3"/>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>54</v>
       </c>
@@ -37170,7 +37178,7 @@
         <v>0</v>
       </c>
       <c r="U376" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="V376" s="3"/>
       <c r="W376" s="3"/>
@@ -37181,7 +37189,7 @@
       <c r="AB376" s="3"/>
       <c r="AC376" s="3"/>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>54</v>
       </c>
@@ -37243,7 +37251,7 @@
         <v>0</v>
       </c>
       <c r="U377" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="V377" s="3"/>
       <c r="W377" s="3"/>
@@ -37254,7 +37262,7 @@
       <c r="AB377" s="3"/>
       <c r="AC377" s="3"/>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>54</v>
       </c>
@@ -37316,7 +37324,7 @@
         <v>0</v>
       </c>
       <c r="U378" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="V378" s="3"/>
       <c r="W378" s="3"/>
@@ -37327,7 +37335,7 @@
       <c r="AB378" s="3"/>
       <c r="AC378" s="3"/>
     </row>
-    <row r="379" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>55</v>
       </c>
@@ -37389,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="U379" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V379" s="3"/>
       <c r="W379" s="3"/>
@@ -37400,7 +37408,7 @@
       <c r="AB379" s="3"/>
       <c r="AC379" s="3"/>
     </row>
-    <row r="380" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>55</v>
       </c>
@@ -37462,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="U380" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V380" s="3"/>
       <c r="W380" s="3"/>
@@ -37473,7 +37481,7 @@
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
     </row>
-    <row r="381" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>55</v>
       </c>
@@ -37535,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="U381" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V381" s="3"/>
       <c r="W381" s="3"/>
@@ -37546,7 +37554,7 @@
       <c r="AB381" s="3"/>
       <c r="AC381" s="3"/>
     </row>
-    <row r="382" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>55</v>
       </c>
@@ -37608,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="U382" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="V382" s="3"/>
       <c r="W382" s="3"/>
@@ -37619,7 +37627,7 @@
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
     </row>
-    <row r="383" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>55</v>
       </c>
@@ -37681,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="U383" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="V383" s="3"/>
       <c r="W383" s="3"/>
@@ -37692,7 +37700,7 @@
       <c r="AB383" s="3"/>
       <c r="AC383" s="3"/>
     </row>
-    <row r="384" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>56</v>
       </c>
@@ -37754,11 +37762,11 @@
         <v>0</v>
       </c>
       <c r="U384" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="V384" s="3"/>
       <c r="W384" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="X384" s="3"/>
       <c r="Y384" s="3"/>
@@ -37829,11 +37837,11 @@
         <v>0</v>
       </c>
       <c r="U385" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="V385" s="3"/>
       <c r="W385" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="X385" s="3"/>
       <c r="Y385" s="3"/>
@@ -37904,7 +37912,7 @@
         <v>0</v>
       </c>
       <c r="U386" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="V386" s="3"/>
       <c r="W386" s="3" t="s">
@@ -37917,7 +37925,7 @@
       <c r="AB386" s="3"/>
       <c r="AC386" s="3"/>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>58</v>
       </c>
@@ -37979,11 +37987,11 @@
         <v>0</v>
       </c>
       <c r="U387" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V387" s="3"/>
       <c r="W387" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="X387" s="3"/>
       <c r="Y387" s="3"/>
@@ -37992,7 +38000,7 @@
       <c r="AB387" s="3"/>
       <c r="AC387" s="3"/>
     </row>
-    <row r="388" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>58</v>
       </c>
@@ -38054,7 +38062,7 @@
         <v>0</v>
       </c>
       <c r="U388" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="V388" s="3"/>
       <c r="W388" s="3" t="s">
@@ -38067,7 +38075,7 @@
       <c r="AB388" s="3"/>
       <c r="AC388" s="3"/>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>59</v>
       </c>
@@ -38129,11 +38137,11 @@
         <v>0</v>
       </c>
       <c r="U389" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="V389" s="3"/>
       <c r="W389" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="X389" s="3"/>
       <c r="Y389" s="3"/>
@@ -38142,7 +38150,7 @@
       <c r="AB389" s="3"/>
       <c r="AC389" s="3"/>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>59</v>
       </c>
@@ -38204,7 +38212,7 @@
         <v>0</v>
       </c>
       <c r="U390" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="V390" s="3"/>
       <c r="W390" s="3"/>
@@ -38215,7 +38223,7 @@
       <c r="AB390" s="3"/>
       <c r="AC390" s="3"/>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>59</v>
       </c>
@@ -38277,7 +38285,7 @@
         <v>0</v>
       </c>
       <c r="U391" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="V391" s="3"/>
       <c r="W391" s="3"/>
@@ -38288,7 +38296,7 @@
       <c r="AB391" s="3"/>
       <c r="AC391" s="3"/>
     </row>
-    <row r="392" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>59</v>
       </c>
@@ -38350,7 +38358,7 @@
         <v>0</v>
       </c>
       <c r="U392" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V392" s="3"/>
       <c r="W392" s="3"/>
@@ -38361,7 +38369,7 @@
       <c r="AB392" s="3"/>
       <c r="AC392" s="3"/>
     </row>
-    <row r="393" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>59</v>
       </c>
@@ -38423,7 +38431,7 @@
         <v>0</v>
       </c>
       <c r="U393" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="V393" s="3"/>
       <c r="W393" s="3"/>
@@ -38434,7 +38442,7 @@
       <c r="AB393" s="3"/>
       <c r="AC393" s="3"/>
     </row>
-    <row r="394" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>59</v>
       </c>
@@ -38496,7 +38504,7 @@
         <v>0</v>
       </c>
       <c r="U394" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="V394" s="3"/>
       <c r="W394" s="3"/>
@@ -38507,7 +38515,7 @@
       <c r="AB394" s="3"/>
       <c r="AC394" s="3"/>
     </row>
-    <row r="395" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>60</v>
       </c>
@@ -38569,7 +38577,7 @@
         <v>0</v>
       </c>
       <c r="U395" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V395" s="3"/>
       <c r="W395" s="3"/>
@@ -38580,7 +38588,7 @@
       <c r="AB395" s="3"/>
       <c r="AC395" s="3"/>
     </row>
-    <row r="396" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>60</v>
       </c>
@@ -38642,7 +38650,7 @@
         <v>0</v>
       </c>
       <c r="U396" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V396" s="3"/>
       <c r="W396" s="3"/>
@@ -38653,7 +38661,7 @@
       <c r="AB396" s="3"/>
       <c r="AC396" s="3"/>
     </row>
-    <row r="397" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>60</v>
       </c>
@@ -38715,7 +38723,7 @@
         <v>0</v>
       </c>
       <c r="U397" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V397" s="3"/>
       <c r="W397" s="3"/>
@@ -38726,7 +38734,7 @@
       <c r="AB397" s="3"/>
       <c r="AC397" s="3"/>
     </row>
-    <row r="398" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>60</v>
       </c>
@@ -38788,7 +38796,7 @@
         <v>0</v>
       </c>
       <c r="U398" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V398" s="3"/>
       <c r="W398" s="3"/>
@@ -38799,7 +38807,7 @@
       <c r="AB398" s="3"/>
       <c r="AC398" s="3"/>
     </row>
-    <row r="399" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>60</v>
       </c>
@@ -38861,7 +38869,7 @@
         <v>0</v>
       </c>
       <c r="U399" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V399" s="3"/>
       <c r="W399" s="3"/>
@@ -38872,7 +38880,7 @@
       <c r="AB399" s="3"/>
       <c r="AC399" s="3"/>
     </row>
-    <row r="400" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>60</v>
       </c>
@@ -38913,7 +38921,7 @@
         <v>0.35808618747376703</v>
       </c>
       <c r="N400" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O400" s="3" t="s">
         <v>26</v>
@@ -38932,7 +38940,7 @@
         <v>0</v>
       </c>
       <c r="U400" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="V400" s="3"/>
       <c r="W400" s="3"/>
@@ -38943,7 +38951,7 @@
       <c r="AB400" s="3"/>
       <c r="AC400" s="3"/>
     </row>
-    <row r="401" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>60</v>
       </c>
@@ -39005,7 +39013,7 @@
         <v>0</v>
       </c>
       <c r="U401" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V401" s="3"/>
       <c r="W401" s="3"/>
@@ -39016,7 +39024,7 @@
       <c r="AB401" s="3"/>
       <c r="AC401" s="3"/>
     </row>
-    <row r="402" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>60</v>
       </c>
@@ -39078,7 +39086,7 @@
         <v>0</v>
       </c>
       <c r="U402" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V402" s="3"/>
       <c r="W402" s="3"/>
@@ -39089,7 +39097,7 @@
       <c r="AB402" s="3"/>
       <c r="AC402" s="3"/>
     </row>
-    <row r="403" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>60</v>
       </c>
@@ -39151,7 +39159,7 @@
         <v>0</v>
       </c>
       <c r="U403" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V403" s="3"/>
       <c r="W403" s="3"/>
@@ -39162,7 +39170,7 @@
       <c r="AB403" s="3"/>
       <c r="AC403" s="3"/>
     </row>
-    <row r="404" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>60</v>
       </c>
@@ -39203,7 +39211,7 @@
         <v>5.4261192137757298E-2</v>
       </c>
       <c r="N404" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O404" s="3" t="s">
         <v>33</v>
@@ -39222,7 +39230,7 @@
         <v>0</v>
       </c>
       <c r="U404" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="V404" s="3"/>
       <c r="W404" s="3"/>
@@ -39233,7 +39241,7 @@
       <c r="AB404" s="3"/>
       <c r="AC404" s="3"/>
     </row>
-    <row r="405" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>60</v>
       </c>
@@ -39295,7 +39303,7 @@
         <v>0</v>
       </c>
       <c r="U405" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V405" s="3"/>
       <c r="W405" s="3"/>
@@ -39306,7 +39314,7 @@
       <c r="AB405" s="3"/>
       <c r="AC405" s="3"/>
     </row>
-    <row r="406" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>60</v>
       </c>
@@ -39368,7 +39376,7 @@
         <v>0</v>
       </c>
       <c r="U406" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V406" s="3"/>
       <c r="W406" s="3"/>
@@ -39379,7 +39387,7 @@
       <c r="AB406" s="3"/>
       <c r="AC406" s="3"/>
     </row>
-    <row r="407" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>60</v>
       </c>
@@ -39441,7 +39449,7 @@
         <v>0</v>
       </c>
       <c r="U407" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V407" s="3"/>
       <c r="W407" s="3"/>
@@ -39452,7 +39460,7 @@
       <c r="AB407" s="3"/>
       <c r="AC407" s="3"/>
     </row>
-    <row r="408" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>60</v>
       </c>
@@ -39514,7 +39522,7 @@
         <v>0</v>
       </c>
       <c r="U408" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V408" s="3"/>
       <c r="W408" s="3"/>
@@ -39525,7 +39533,7 @@
       <c r="AB408" s="3"/>
       <c r="AC408" s="3"/>
     </row>
-    <row r="409" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>60</v>
       </c>
@@ -39566,7 +39574,7 @@
         <v>9.3687766051202097E-3</v>
       </c>
       <c r="N409" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O409" s="3" t="s">
         <v>26</v>
@@ -39585,7 +39593,7 @@
         <v>0</v>
       </c>
       <c r="U409" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="V409" s="3"/>
       <c r="W409" s="3"/>
@@ -39596,7 +39604,7 @@
       <c r="AB409" s="3"/>
       <c r="AC409" s="3"/>
     </row>
-    <row r="410" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>60</v>
       </c>
@@ -39658,7 +39666,7 @@
         <v>0</v>
       </c>
       <c r="U410" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V410" s="3"/>
       <c r="W410" s="3"/>
@@ -39669,7 +39677,7 @@
       <c r="AB410" s="3"/>
       <c r="AC410" s="3"/>
     </row>
-    <row r="411" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>60</v>
       </c>
@@ -39731,7 +39739,7 @@
         <v>0</v>
       </c>
       <c r="U411" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V411" s="3"/>
       <c r="W411" s="3"/>
@@ -39742,7 +39750,7 @@
       <c r="AB411" s="3"/>
       <c r="AC411" s="3"/>
     </row>
-    <row r="412" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>60</v>
       </c>
@@ -39804,7 +39812,7 @@
         <v>0</v>
       </c>
       <c r="U412" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V412" s="3"/>
       <c r="W412" s="3"/>
@@ -39815,7 +39823,7 @@
       <c r="AB412" s="3"/>
       <c r="AC412" s="3"/>
     </row>
-    <row r="413" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>60</v>
       </c>
@@ -39856,7 +39864,7 @@
         <v>0.91245896391242898</v>
       </c>
       <c r="N413" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O413" s="3" t="s">
         <v>26</v>
@@ -39875,7 +39883,7 @@
         <v>0</v>
       </c>
       <c r="U413" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="V413" s="3"/>
       <c r="W413" s="3"/>
@@ -39886,7 +39894,7 @@
       <c r="AB413" s="3"/>
       <c r="AC413" s="3"/>
     </row>
-    <row r="414" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>60</v>
       </c>
@@ -39948,7 +39956,7 @@
         <v>0</v>
       </c>
       <c r="U414" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="V414" s="3"/>
       <c r="W414" s="3" t="s">
@@ -39961,7 +39969,7 @@
       <c r="AB414" s="3"/>
       <c r="AC414" s="3"/>
     </row>
-    <row r="415" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>60</v>
       </c>
@@ -40023,7 +40031,7 @@
         <v>0</v>
       </c>
       <c r="U415" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="V415" s="3"/>
       <c r="W415" s="3" t="s">
@@ -40036,7 +40044,7 @@
       <c r="AB415" s="3"/>
       <c r="AC415" s="3"/>
     </row>
-    <row r="416" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>60</v>
       </c>
@@ -40098,7 +40106,7 @@
         <v>0</v>
       </c>
       <c r="U416" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="V416" s="3"/>
       <c r="W416" s="3" t="s">
@@ -40111,7 +40119,7 @@
       <c r="AB416" s="3"/>
       <c r="AC416" s="3"/>
     </row>
-    <row r="417" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>60</v>
       </c>
@@ -40173,7 +40181,7 @@
         <v>0</v>
       </c>
       <c r="U417" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="V417" s="3"/>
       <c r="W417" s="3" t="s">
@@ -40186,7 +40194,7 @@
       <c r="AB417" s="3"/>
       <c r="AC417" s="3"/>
     </row>
-    <row r="418" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>60</v>
       </c>
@@ -40248,7 +40256,7 @@
         <v>0</v>
       </c>
       <c r="U418" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="V418" s="3"/>
       <c r="W418" s="3" t="s">
@@ -40261,7 +40269,7 @@
       <c r="AB418" s="3"/>
       <c r="AC418" s="3"/>
     </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>60</v>
       </c>
@@ -40323,7 +40331,7 @@
         <v>0</v>
       </c>
       <c r="U419" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="V419" s="3"/>
       <c r="W419" s="3" t="s">
@@ -40336,7 +40344,7 @@
       <c r="AB419" s="3"/>
       <c r="AC419" s="3"/>
     </row>
-    <row r="420" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>60</v>
       </c>
@@ -40398,7 +40406,7 @@
         <v>0</v>
       </c>
       <c r="U420" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="V420" s="3"/>
       <c r="W420" s="3"/>
@@ -40409,7 +40417,7 @@
       <c r="AB420" s="3"/>
       <c r="AC420" s="3"/>
     </row>
-    <row r="421" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>60</v>
       </c>
@@ -40471,7 +40479,7 @@
         <v>0</v>
       </c>
       <c r="U421" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V421" s="3"/>
       <c r="W421" s="3" t="s">
@@ -40484,7 +40492,7 @@
       <c r="AB421" s="3"/>
       <c r="AC421" s="3"/>
     </row>
-    <row r="422" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>60</v>
       </c>
@@ -40546,7 +40554,7 @@
         <v>0</v>
       </c>
       <c r="U422" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V422" s="3"/>
       <c r="W422" s="3" t="s">
@@ -40559,12 +40567,12 @@
       <c r="AB422" s="3"/>
       <c r="AC422" s="3"/>
     </row>
-    <row r="423" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>61</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>594</v>
@@ -40600,7 +40608,7 @@
         <v>1.1870154785943599E-3</v>
       </c>
       <c r="N423" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O423" s="3" t="s">
         <v>26</v>
@@ -40619,7 +40627,7 @@
         <v>0</v>
       </c>
       <c r="U423" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="V423" s="3"/>
       <c r="W423" s="3"/>
@@ -40630,12 +40638,12 @@
       <c r="AB423" s="3"/>
       <c r="AC423" s="3"/>
     </row>
-    <row r="424" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>61</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>594</v>
@@ -40671,7 +40679,7 @@
         <v>2.4565130560005202E-3</v>
       </c>
       <c r="N424" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O424" s="3" t="s">
         <v>26</v>
@@ -40690,7 +40698,7 @@
         <v>0</v>
       </c>
       <c r="U424" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="V424" s="3"/>
       <c r="W424" s="3"/>
@@ -40701,12 +40709,12 @@
       <c r="AB424" s="3"/>
       <c r="AC424" s="3"/>
     </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>61</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>594</v>
@@ -40763,7 +40771,7 @@
         <v>0</v>
       </c>
       <c r="U425" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V425" s="3"/>
       <c r="W425" s="3"/>
@@ -40774,12 +40782,12 @@
       <c r="AB425" s="3"/>
       <c r="AC425" s="3"/>
     </row>
-    <row r="426" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>61</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>594</v>
@@ -40815,7 +40823,7 @@
         <v>8.3297696326256401E-3</v>
       </c>
       <c r="N426" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O426" s="3" t="s">
         <v>26</v>
@@ -40834,7 +40842,7 @@
         <v>0</v>
       </c>
       <c r="U426" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V426" s="3"/>
       <c r="W426" s="3"/>
@@ -40845,7 +40853,7 @@
       <c r="AB426" s="3"/>
       <c r="AC426" s="3"/>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>62</v>
       </c>
@@ -40907,11 +40915,11 @@
         <v>0</v>
       </c>
       <c r="U427" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="V427" s="3"/>
       <c r="W427" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="X427" s="3"/>
       <c r="Y427" s="3"/>
@@ -40920,7 +40928,7 @@
       <c r="AB427" s="3"/>
       <c r="AC427" s="3"/>
     </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>63</v>
       </c>
@@ -40982,11 +40990,11 @@
         <v>22</v>
       </c>
       <c r="U428" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="V428" s="3"/>
       <c r="W428" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X428" s="3"/>
       <c r="Y428" s="3"/>
@@ -40995,7 +41003,7 @@
       <c r="AB428" s="3"/>
       <c r="AC428" s="3"/>
     </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>63</v>
       </c>
@@ -41057,11 +41065,11 @@
         <v>22</v>
       </c>
       <c r="U429" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V429" s="3"/>
       <c r="W429" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X429" s="3"/>
       <c r="Y429" s="3"/>
@@ -41070,7 +41078,7 @@
       <c r="AB429" s="3"/>
       <c r="AC429" s="3"/>
     </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>63</v>
       </c>
@@ -41132,11 +41140,11 @@
         <v>22</v>
       </c>
       <c r="U430" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="V430" s="3"/>
       <c r="W430" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X430" s="3"/>
       <c r="Y430" s="3"/>
@@ -41145,7 +41153,7 @@
       <c r="AB430" s="3"/>
       <c r="AC430" s="3"/>
     </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>63</v>
       </c>
@@ -41207,11 +41215,11 @@
         <v>22</v>
       </c>
       <c r="U431" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="V431" s="3"/>
       <c r="W431" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X431" s="3"/>
       <c r="Y431" s="3"/>
@@ -41220,7 +41228,7 @@
       <c r="AB431" s="3"/>
       <c r="AC431" s="3"/>
     </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>63</v>
       </c>
@@ -41282,11 +41290,11 @@
         <v>22</v>
       </c>
       <c r="U432" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="V432" s="3"/>
       <c r="W432" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X432" s="3"/>
       <c r="Y432" s="3"/>
@@ -41295,7 +41303,7 @@
       <c r="AB432" s="3"/>
       <c r="AC432" s="3"/>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>63</v>
       </c>
@@ -41357,11 +41365,11 @@
         <v>22</v>
       </c>
       <c r="U433" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V433" s="3"/>
       <c r="W433" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X433" s="3"/>
       <c r="Y433" s="3"/>
@@ -41370,7 +41378,7 @@
       <c r="AB433" s="3"/>
       <c r="AC433" s="3"/>
     </row>
-    <row r="434" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>64</v>
       </c>
@@ -41432,7 +41440,7 @@
         <v>0</v>
       </c>
       <c r="U434" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="V434" s="3"/>
       <c r="W434" s="3"/>
@@ -41443,7 +41451,7 @@
       <c r="AB434" s="3"/>
       <c r="AC434" s="3"/>
     </row>
-    <row r="435" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>64</v>
       </c>
@@ -41505,7 +41513,7 @@
         <v>0</v>
       </c>
       <c r="U435" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="V435" s="3"/>
       <c r="W435" s="3"/>
@@ -41516,7 +41524,7 @@
       <c r="AB435" s="3"/>
       <c r="AC435" s="3"/>
     </row>
-    <row r="436" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>64</v>
       </c>
@@ -41578,7 +41586,7 @@
         <v>0</v>
       </c>
       <c r="U436" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V436" s="3"/>
       <c r="W436" s="3"/>
@@ -41589,7 +41597,7 @@
       <c r="AB436" s="3"/>
       <c r="AC436" s="3"/>
     </row>
-    <row r="437" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>64</v>
       </c>
@@ -41651,7 +41659,7 @@
         <v>0</v>
       </c>
       <c r="U437" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V437" s="3"/>
       <c r="W437" s="3"/>
@@ -41662,7 +41670,7 @@
       <c r="AB437" s="3"/>
       <c r="AC437" s="3"/>
     </row>
-    <row r="438" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>64</v>
       </c>
@@ -41724,7 +41732,7 @@
         <v>0</v>
       </c>
       <c r="U438" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="V438" s="3"/>
       <c r="W438" s="3"/>
@@ -41735,7 +41743,7 @@
       <c r="AB438" s="3"/>
       <c r="AC438" s="3"/>
     </row>
-    <row r="439" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>64</v>
       </c>
@@ -41797,7 +41805,7 @@
         <v>0</v>
       </c>
       <c r="U439" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="V439" s="3"/>
       <c r="W439" s="3"/>
@@ -41808,7 +41816,7 @@
       <c r="AB439" s="3"/>
       <c r="AC439" s="3"/>
     </row>
-    <row r="440" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>64</v>
       </c>
@@ -41870,7 +41878,7 @@
         <v>0</v>
       </c>
       <c r="U440" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="V440" s="3"/>
       <c r="W440" s="3"/>
@@ -41881,7 +41889,7 @@
       <c r="AB440" s="3"/>
       <c r="AC440" s="3"/>
     </row>
-    <row r="441" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>64</v>
       </c>
@@ -41943,7 +41951,7 @@
         <v>0</v>
       </c>
       <c r="U441" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="V441" s="3"/>
       <c r="W441" s="3"/>
@@ -42016,10 +42024,10 @@
         <v>1</v>
       </c>
       <c r="U442" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V442" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="W442" s="3"/>
       <c r="X442" s="3"/>
@@ -42029,7 +42037,7 @@
       <c r="AB442" s="3"/>
       <c r="AC442" s="3"/>
     </row>
-    <row r="443" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>65</v>
       </c>
@@ -42091,11 +42099,11 @@
         <v>0</v>
       </c>
       <c r="U443" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="V443" s="3"/>
       <c r="W443" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="X443" s="3"/>
       <c r="Y443" s="3"/>
@@ -42104,7 +42112,7 @@
       <c r="AB443" s="3"/>
       <c r="AC443" s="3"/>
     </row>
-    <row r="444" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>65</v>
       </c>
@@ -42166,7 +42174,7 @@
         <v>0</v>
       </c>
       <c r="U444" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="V444" s="3"/>
       <c r="W444" s="3"/>
@@ -42177,7 +42185,7 @@
       <c r="AB444" s="3"/>
       <c r="AC444" s="3"/>
     </row>
-    <row r="445" spans="1:29" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:29" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>66</v>
       </c>
@@ -42239,11 +42247,11 @@
         <v>0</v>
       </c>
       <c r="U445" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V445" s="3"/>
       <c r="W445" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="X445" s="3"/>
       <c r="Y445" s="3"/>
@@ -42252,7 +42260,7 @@
       <c r="AB445" s="3"/>
       <c r="AC445" s="3"/>
     </row>
-    <row r="446" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>67</v>
       </c>
@@ -42293,7 +42301,7 @@
         <v>8.6544212372340396E-7</v>
       </c>
       <c r="N446" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O446" s="3" t="s">
         <v>26</v>
@@ -42312,7 +42320,7 @@
         <v>0</v>
       </c>
       <c r="U446" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V446" s="3"/>
       <c r="W446" s="3"/>
@@ -42323,7 +42331,7 @@
       <c r="AB446" s="3"/>
       <c r="AC446" s="3"/>
     </row>
-    <row r="447" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:29" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>67</v>
       </c>
@@ -42364,7 +42372,7 @@
         <v>3.4858355875314197E-2</v>
       </c>
       <c r="N447" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O447" s="3" t="s">
         <v>33</v>
@@ -42383,7 +42391,7 @@
         <v>0</v>
       </c>
       <c r="U447" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="V447" s="3"/>
       <c r="W447" s="3"/>
@@ -42394,7 +42402,7 @@
       <c r="AB447" s="3"/>
       <c r="AC447" s="3"/>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>67</v>
       </c>
@@ -42456,7 +42464,7 @@
         <v>0</v>
       </c>
       <c r="U448" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="V448" s="3"/>
       <c r="W448" s="3"/>
@@ -42467,7 +42475,7 @@
       <c r="AB448" s="3"/>
       <c r="AC448" s="3"/>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>67</v>
       </c>
@@ -42529,7 +42537,7 @@
         <v>0</v>
       </c>
       <c r="U449" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="V449" s="3"/>
       <c r="W449" s="3"/>
@@ -42540,7 +42548,7 @@
       <c r="AB449" s="3"/>
       <c r="AC449" s="3"/>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>67</v>
       </c>
@@ -42602,7 +42610,7 @@
         <v>0</v>
       </c>
       <c r="U450" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="V450" s="3"/>
       <c r="W450" s="3"/>
@@ -42675,7 +42683,7 @@
         <v>0</v>
       </c>
       <c r="U451" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V451" s="3"/>
       <c r="W451" s="3"/>
@@ -42686,7 +42694,7 @@
       <c r="AB451" s="3"/>
       <c r="AC451" s="3"/>
     </row>
-    <row r="452" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>69</v>
       </c>
@@ -42748,7 +42756,7 @@
         <v>0</v>
       </c>
       <c r="U452" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V452" s="3"/>
       <c r="W452" s="3"/>
@@ -42759,7 +42767,7 @@
       <c r="AB452" s="3"/>
       <c r="AC452" s="3"/>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>69</v>
       </c>
@@ -42821,7 +42829,7 @@
         <v>0</v>
       </c>
       <c r="U453" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V453" s="3"/>
       <c r="W453" s="3"/>
@@ -42832,7 +42840,7 @@
       <c r="AB453" s="3"/>
       <c r="AC453" s="3"/>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>69</v>
       </c>
@@ -42894,7 +42902,7 @@
         <v>0</v>
       </c>
       <c r="U454" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V454" s="3"/>
       <c r="W454" s="3"/>
@@ -42905,7 +42913,7 @@
       <c r="AB454" s="3"/>
       <c r="AC454" s="3"/>
     </row>
-    <row r="455" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>69</v>
       </c>
@@ -42967,7 +42975,7 @@
         <v>0</v>
       </c>
       <c r="U455" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="V455" s="3"/>
       <c r="W455" s="3"/>
@@ -42978,7 +42986,7 @@
       <c r="AB455" s="3"/>
       <c r="AC455" s="3"/>
     </row>
-    <row r="456" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>69</v>
       </c>
@@ -43040,7 +43048,7 @@
         <v>0</v>
       </c>
       <c r="U456" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="V456" s="3"/>
       <c r="W456" s="3"/>
@@ -43051,7 +43059,7 @@
       <c r="AB456" s="3"/>
       <c r="AC456" s="3"/>
     </row>
-    <row r="457" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>69</v>
       </c>
@@ -43113,7 +43121,7 @@
         <v>0</v>
       </c>
       <c r="U457" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="V457" s="3"/>
       <c r="W457" s="3"/>
@@ -43124,7 +43132,7 @@
       <c r="AB457" s="3"/>
       <c r="AC457" s="3"/>
     </row>
-    <row r="458" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>69</v>
       </c>
@@ -43186,7 +43194,7 @@
         <v>0</v>
       </c>
       <c r="U458" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="V458" s="3"/>
       <c r="W458" s="3"/>
@@ -43197,7 +43205,7 @@
       <c r="AB458" s="3"/>
       <c r="AC458" s="3"/>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>69</v>
       </c>
@@ -43259,7 +43267,7 @@
         <v>0</v>
       </c>
       <c r="U459" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="V459" s="3"/>
       <c r="W459" s="3"/>
@@ -43270,12 +43278,12 @@
       <c r="AB459" s="3"/>
       <c r="AC459" s="3"/>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>70</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>72</v>
@@ -43311,7 +43319,7 @@
         <v>2.45597077539504E-24</v>
       </c>
       <c r="N460" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O460" s="3" t="s">
         <v>26</v>
@@ -43332,7 +43340,7 @@
         <v>0</v>
       </c>
       <c r="U460" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V460" s="3"/>
       <c r="W460" s="3"/>
@@ -43348,7 +43356,7 @@
         <v>70</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>72</v>
@@ -43384,7 +43392,7 @@
         <v>6.6047900321184198E-4</v>
       </c>
       <c r="N461" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O461" s="3" t="s">
         <v>26</v>
@@ -43405,10 +43413,10 @@
         <v>1</v>
       </c>
       <c r="U461" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V461" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="W461" s="3"/>
       <c r="X461" s="3"/>
@@ -43423,7 +43431,7 @@
         <v>70</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>72</v>
@@ -43459,7 +43467,7 @@
         <v>2.7336835571338002E-2</v>
       </c>
       <c r="N462" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="O462" s="3" t="s">
         <v>26</v>
@@ -43480,10 +43488,10 @@
         <v>1</v>
       </c>
       <c r="U462" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="V462" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="W462" s="3"/>
       <c r="X462" s="3"/>
@@ -43493,12 +43501,12 @@
       <c r="AB462" s="3"/>
       <c r="AC462" s="3"/>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>70</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>72</v>
@@ -43534,7 +43542,7 @@
         <v>6.2964233758121796E-2</v>
       </c>
       <c r="N463" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O463" s="3" t="s">
         <v>26</v>
@@ -43555,7 +43563,7 @@
         <v>0</v>
       </c>
       <c r="U463" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V463" s="3"/>
       <c r="W463" s="3"/>
@@ -43566,12 +43574,12 @@
       <c r="AB463" s="3"/>
       <c r="AC463" s="3"/>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>70</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>72</v>
@@ -43607,7 +43615,7 @@
         <v>2.1094092996124299E-2</v>
       </c>
       <c r="N464" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O464" s="3" t="s">
         <v>26</v>
@@ -43628,7 +43636,7 @@
         <v>0</v>
       </c>
       <c r="U464" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V464" s="3"/>
       <c r="W464" s="3"/>
@@ -43639,12 +43647,12 @@
       <c r="AB464" s="3"/>
       <c r="AC464" s="3"/>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>70</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>72</v>
@@ -43680,7 +43688,7 @@
         <v>1.94198882990464E-3</v>
       </c>
       <c r="N465" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O465" s="3" t="s">
         <v>26</v>
@@ -43701,7 +43709,7 @@
         <v>0</v>
       </c>
       <c r="U465" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V465" s="3"/>
       <c r="W465" s="3"/>
@@ -43712,12 +43720,12 @@
       <c r="AB465" s="3"/>
       <c r="AC465" s="3"/>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>70</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>72</v>
@@ -43753,7 +43761,7 @@
         <v>1.6325261358972099E-2</v>
       </c>
       <c r="N466" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O466" s="3" t="s">
         <v>26</v>
@@ -43774,7 +43782,7 @@
         <v>0</v>
       </c>
       <c r="U466" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V466" s="3"/>
       <c r="W466" s="3"/>
@@ -43785,12 +43793,12 @@
       <c r="AB466" s="3"/>
       <c r="AC466" s="3"/>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>70</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>72</v>
@@ -43826,7 +43834,7 @@
         <v>5.0372513882732605E-4</v>
       </c>
       <c r="N467" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O467" s="3" t="s">
         <v>26</v>
@@ -43847,7 +43855,7 @@
         <v>0</v>
       </c>
       <c r="U467" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V467" s="3"/>
       <c r="W467" s="3"/>
@@ -43858,12 +43866,12 @@
       <c r="AB467" s="3"/>
       <c r="AC467" s="3"/>
     </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>70</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>72</v>
@@ -43899,7 +43907,7 @@
         <v>7.4454548223163997E-2</v>
       </c>
       <c r="N468" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O468" s="3" t="s">
         <v>26</v>
@@ -43920,7 +43928,7 @@
         <v>0</v>
       </c>
       <c r="U468" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V468" s="3"/>
       <c r="W468" s="3"/>
@@ -43931,12 +43939,12 @@
       <c r="AB468" s="3"/>
       <c r="AC468" s="3"/>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>70</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>72</v>
@@ -43972,7 +43980,7 @@
         <v>5.5274908427644502E-5</v>
       </c>
       <c r="N469" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O469" s="3" t="s">
         <v>26</v>
@@ -43993,7 +44001,7 @@
         <v>0</v>
       </c>
       <c r="U469" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V469" s="3"/>
       <c r="W469" s="3"/>
@@ -44009,7 +44017,7 @@
         <v>70</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>72</v>
@@ -44045,7 +44053,7 @@
         <v>3.80736116339901E-3</v>
       </c>
       <c r="N470" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O470" s="3" t="s">
         <v>26</v>
@@ -44066,10 +44074,10 @@
         <v>1</v>
       </c>
       <c r="U470" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V470" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="W470" s="3"/>
       <c r="X470" s="3"/>
@@ -44084,7 +44092,7 @@
         <v>70</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>72</v>
@@ -44120,7 +44128,7 @@
         <v>1.54442052388158E-6</v>
       </c>
       <c r="N471" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O471" s="3" t="s">
         <v>26</v>
@@ -44141,10 +44149,10 @@
         <v>1</v>
       </c>
       <c r="U471" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V471" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="W471" s="3"/>
       <c r="X471" s="3"/>
@@ -44159,7 +44167,7 @@
         <v>70</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>72</v>
@@ -44195,7 +44203,7 @@
         <v>0.42703240437762802</v>
       </c>
       <c r="N472" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="O472" s="3" t="s">
         <v>26</v>
@@ -44216,10 +44224,10 @@
         <v>1</v>
       </c>
       <c r="U472" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V472" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="W472" s="3"/>
       <c r="X472" s="3"/>
@@ -44234,7 +44242,7 @@
         <v>70</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>72</v>
@@ -44270,7 +44278,7 @@
         <v>0.103086717982739</v>
       </c>
       <c r="N473" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O473" s="3" t="s">
         <v>33</v>
@@ -44291,10 +44299,10 @@
         <v>1</v>
       </c>
       <c r="U473" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="V473" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="W473" s="3"/>
       <c r="X473" s="3"/>
@@ -44309,7 +44317,7 @@
         <v>70</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>72</v>
@@ -44345,7 +44353,7 @@
         <v>1.39872448374899E-2</v>
       </c>
       <c r="N474" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O474" s="3" t="s">
         <v>26</v>
@@ -44366,10 +44374,10 @@
         <v>1</v>
       </c>
       <c r="U474" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="V474" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="W474" s="3"/>
       <c r="X474" s="3"/>
@@ -44384,7 +44392,7 @@
         <v>70</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>72</v>
@@ -44420,7 +44428,7 @@
         <v>4.4138317624251299E-4</v>
       </c>
       <c r="N475" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O475" s="3" t="s">
         <v>26</v>
@@ -44441,10 +44449,10 @@
         <v>1</v>
       </c>
       <c r="U475" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V475" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="W475" s="3"/>
       <c r="X475" s="3"/>
@@ -44454,12 +44462,12 @@
       <c r="AB475" s="3"/>
       <c r="AC475" s="3"/>
     </row>
-    <row r="476" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>71</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>120</v>
@@ -44495,7 +44503,7 @@
         <v>2.2887480818011001E-35</v>
       </c>
       <c r="N476" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O476" s="3" t="s">
         <v>26</v>
@@ -44516,7 +44524,7 @@
         <v>0</v>
       </c>
       <c r="U476" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V476" s="3"/>
       <c r="W476" s="3"/>
@@ -44527,12 +44535,12 @@
       <c r="AB476" s="3"/>
       <c r="AC476" s="3"/>
     </row>
-    <row r="477" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>71</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>120</v>
@@ -44568,7 +44576,7 @@
         <v>3.4121277514831003E-2</v>
       </c>
       <c r="N477" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O477" s="3" t="s">
         <v>33</v>
@@ -44589,7 +44597,7 @@
         <v>0</v>
       </c>
       <c r="U477" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="V477" s="3"/>
       <c r="W477" s="3"/>
@@ -44600,12 +44608,12 @@
       <c r="AB477" s="3"/>
       <c r="AC477" s="3"/>
     </row>
-    <row r="478" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>71</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>120</v>
@@ -44641,7 +44649,7 @@
         <v>2.6911019398797499E-6</v>
       </c>
       <c r="N478" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O478" s="3" t="s">
         <v>26</v>
@@ -44662,7 +44670,7 @@
         <v>0</v>
       </c>
       <c r="U478" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="V478" s="3"/>
       <c r="W478" s="3"/>
@@ -44673,12 +44681,12 @@
       <c r="AB478" s="3"/>
       <c r="AC478" s="3"/>
     </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>71</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>120</v>
@@ -44714,7 +44722,7 @@
         <v>6.9474926852909893E-30</v>
       </c>
       <c r="N479" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O479" s="3" t="s">
         <v>33</v>
@@ -44735,7 +44743,7 @@
         <v>0</v>
       </c>
       <c r="U479" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V479" s="3"/>
       <c r="W479" s="3"/>
@@ -44746,12 +44754,12 @@
       <c r="AB479" s="3"/>
       <c r="AC479" s="3"/>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>71</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>120</v>
@@ -44787,7 +44795,7 @@
         <v>3.8357037241427199E-13</v>
       </c>
       <c r="N480" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O480" s="3" t="s">
         <v>26</v>
@@ -44808,7 +44816,7 @@
         <v>0</v>
       </c>
       <c r="U480" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="V480" s="3"/>
       <c r="W480" s="3"/>
@@ -44819,12 +44827,12 @@
       <c r="AB480" s="3"/>
       <c r="AC480" s="3"/>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>71</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>120</v>
@@ -44860,7 +44868,7 @@
         <v>6.4091044704741096E-11</v>
       </c>
       <c r="N481" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O481" s="3" t="s">
         <v>26</v>
@@ -44881,7 +44889,7 @@
         <v>0</v>
       </c>
       <c r="U481" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V481" s="3"/>
       <c r="W481" s="3"/>
@@ -44892,12 +44900,12 @@
       <c r="AB481" s="3"/>
       <c r="AC481" s="3"/>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>71</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>120</v>
@@ -44933,7 +44941,7 @@
         <v>5.5244358403767598E-6</v>
       </c>
       <c r="N482" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O482" s="3" t="s">
         <v>26</v>
@@ -44954,7 +44962,7 @@
         <v>0</v>
       </c>
       <c r="U482" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V482" s="3"/>
       <c r="W482" s="3"/>
@@ -44965,12 +44973,12 @@
       <c r="AB482" s="3"/>
       <c r="AC482" s="3"/>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>71</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>120</v>
@@ -45006,7 +45014,7 @@
         <v>3.3425912214947099E-24</v>
       </c>
       <c r="N483" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O483" s="3" t="s">
         <v>26</v>
@@ -45027,7 +45035,7 @@
         <v>0</v>
       </c>
       <c r="U483" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V483" s="3"/>
       <c r="W483" s="3"/>
@@ -45038,12 +45046,12 @@
       <c r="AB483" s="3"/>
       <c r="AC483" s="3"/>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>71</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>120</v>
@@ -45079,7 +45087,7 @@
         <v>2.7596805169884699E-7</v>
       </c>
       <c r="N484" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O484" s="3" t="s">
         <v>26</v>
@@ -45100,7 +45108,7 @@
         <v>0</v>
       </c>
       <c r="U484" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="V484" s="3"/>
       <c r="W484" s="3"/>
@@ -45111,12 +45119,12 @@
       <c r="AB484" s="3"/>
       <c r="AC484" s="3"/>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>71</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>120</v>
@@ -45152,7 +45160,7 @@
         <v>4.2876089477186699E-2</v>
       </c>
       <c r="N485" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O485" s="3" t="s">
         <v>26</v>
@@ -45173,7 +45181,7 @@
         <v>0</v>
       </c>
       <c r="U485" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="V485" s="3"/>
       <c r="W485" s="3"/>
@@ -45184,12 +45192,12 @@
       <c r="AB485" s="3"/>
       <c r="AC485" s="3"/>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>71</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>120</v>
@@ -45225,7 +45233,7 @@
         <v>4.2876089477186699E-2</v>
       </c>
       <c r="N486" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O486" s="3" t="s">
         <v>26</v>
@@ -45246,7 +45254,7 @@
         <v>0</v>
       </c>
       <c r="U486" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V486" s="3"/>
       <c r="W486" s="3"/>
@@ -45257,12 +45265,12 @@
       <c r="AB486" s="3"/>
       <c r="AC486" s="3"/>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>71</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>120</v>
@@ -45298,7 +45306,7 @@
         <v>3.0050038442115201E-4</v>
       </c>
       <c r="N487" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O487" s="3" t="s">
         <v>26</v>
@@ -45319,7 +45327,7 @@
         <v>0</v>
       </c>
       <c r="U487" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V487" s="3"/>
       <c r="W487" s="3"/>
@@ -45330,12 +45338,12 @@
       <c r="AB487" s="3"/>
       <c r="AC487" s="3"/>
     </row>
-    <row r="488" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:29" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>71</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>120</v>
@@ -45371,7 +45379,7 @@
         <v>0.55800576900830301</v>
       </c>
       <c r="N488" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O488" s="3" t="s">
         <v>26</v>
@@ -45392,7 +45400,7 @@
         <v>0</v>
       </c>
       <c r="U488" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V488" s="3"/>
       <c r="W488" s="3"/>
@@ -45403,12 +45411,12 @@
       <c r="AB488" s="3"/>
       <c r="AC488" s="3"/>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>71</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>120</v>
@@ -45444,7 +45452,7 @@
         <v>0.13846432230154601</v>
       </c>
       <c r="N489" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O489" s="3" t="s">
         <v>26</v>
@@ -45465,7 +45473,7 @@
         <v>0</v>
       </c>
       <c r="U489" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="V489" s="3"/>
       <c r="W489" s="3"/>
@@ -45476,15 +45484,15 @@
       <c r="AB489" s="3"/>
       <c r="AC489" s="3"/>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>72</v>
       </c>
       <c r="B490" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C490" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>791</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>30</v>
@@ -45517,7 +45525,7 @@
         <v>0.19300518093007299</v>
       </c>
       <c r="N490" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O490" s="3" t="s">
         <v>26</v>
@@ -45538,7 +45546,7 @@
         <v>0</v>
       </c>
       <c r="U490" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="V490" s="3"/>
       <c r="W490" s="3"/>
@@ -45549,15 +45557,15 @@
       <c r="AB490" s="3"/>
       <c r="AC490" s="3"/>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>73</v>
       </c>
       <c r="B491" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C491" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>30</v>
@@ -45590,7 +45598,7 @@
         <v>6.1807595792048505E-35</v>
       </c>
       <c r="N491" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O491" s="3" t="s">
         <v>26</v>
@@ -45611,7 +45619,7 @@
         <v>0</v>
       </c>
       <c r="U491" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V491" s="3"/>
       <c r="W491" s="3"/>
@@ -45622,15 +45630,15 @@
       <c r="AB491" s="3"/>
       <c r="AC491" s="3"/>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>73</v>
       </c>
       <c r="B492" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>30</v>
@@ -45663,7 +45671,7 @@
         <v>1.5973215670955601E-37</v>
       </c>
       <c r="N492" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O492" s="3" t="s">
         <v>26</v>
@@ -45684,7 +45692,7 @@
         <v>0</v>
       </c>
       <c r="U492" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V492" s="3"/>
       <c r="W492" s="3"/>
@@ -45695,15 +45703,15 @@
       <c r="AB492" s="3"/>
       <c r="AC492" s="3"/>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>73</v>
       </c>
       <c r="B493" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C493" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="D493" s="3" t="s">
         <v>30</v>
@@ -45736,7 +45744,7 @@
         <v>2.69268982944411E-37</v>
       </c>
       <c r="N493" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O493" s="3" t="s">
         <v>26</v>
@@ -45757,7 +45765,7 @@
         <v>0</v>
       </c>
       <c r="U493" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V493" s="3"/>
       <c r="W493" s="3"/>
@@ -45773,10 +45781,10 @@
         <v>73</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>30</v>
@@ -45809,7 +45817,7 @@
         <v>3.51216347164897E-10</v>
       </c>
       <c r="N494" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O494" s="3" t="s">
         <v>26</v>
@@ -45830,10 +45838,10 @@
         <v>1</v>
       </c>
       <c r="U494" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="V494" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="W494" s="3"/>
       <c r="X494" s="3"/>
@@ -45848,10 +45856,10 @@
         <v>73</v>
       </c>
       <c r="B495" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C495" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>30</v>
@@ -45884,7 +45892,7 @@
         <v>3.0141094887190401E-2</v>
       </c>
       <c r="N495" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O495" s="3" t="s">
         <v>26</v>
@@ -45905,10 +45913,10 @@
         <v>1</v>
       </c>
       <c r="U495" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V495" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="W495" s="3"/>
       <c r="X495" s="3"/>
@@ -45923,10 +45931,10 @@
         <v>73</v>
       </c>
       <c r="B496" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C496" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>30</v>
@@ -45959,7 +45967,7 @@
         <v>0.21209310154687</v>
       </c>
       <c r="N496" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O496" s="3" t="s">
         <v>26</v>
@@ -45980,10 +45988,10 @@
         <v>1</v>
       </c>
       <c r="U496" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V496" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="W496" s="3"/>
       <c r="X496" s="3"/>
@@ -45998,10 +46006,10 @@
         <v>74</v>
       </c>
       <c r="B497" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C497" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>795</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>30</v>
@@ -46034,7 +46042,7 @@
         <v>0.84148058112179402</v>
       </c>
       <c r="N497" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O497" s="3" t="s">
         <v>26</v>
@@ -46055,10 +46063,10 @@
         <v>1</v>
       </c>
       <c r="U497" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V497" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="W497" s="3"/>
       <c r="X497" s="3"/>
@@ -46073,10 +46081,10 @@
         <v>74</v>
       </c>
       <c r="B498" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C498" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>795</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>30</v>
@@ -46109,7 +46117,7 @@
         <v>4.2883213527400099E-2</v>
       </c>
       <c r="N498" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O498" s="3" t="s">
         <v>26</v>
@@ -46130,10 +46138,10 @@
         <v>1</v>
       </c>
       <c r="U498" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V498" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="W498" s="3"/>
       <c r="X498" s="3"/>
@@ -46143,15 +46151,15 @@
       <c r="AB498" s="3"/>
       <c r="AC498" s="3"/>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>75</v>
       </c>
       <c r="B499" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C499" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>30</v>
@@ -46184,7 +46192,7 @@
         <v>0.73840748806907697</v>
       </c>
       <c r="N499" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O499" s="3" t="s">
         <v>33</v>
@@ -46205,7 +46213,7 @@
         <v>0</v>
       </c>
       <c r="U499" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V499" s="3"/>
       <c r="W499" s="3"/>
@@ -46216,15 +46224,15 @@
       <c r="AB499" s="3"/>
       <c r="AC499" s="3"/>
     </row>
-    <row r="500" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>75</v>
       </c>
       <c r="B500" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C500" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>30</v>
@@ -46257,7 +46265,7 @@
         <v>1.55707066954412E-35</v>
       </c>
       <c r="N500" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O500" s="3" t="s">
         <v>26</v>
@@ -46278,11 +46286,11 @@
         <v>22</v>
       </c>
       <c r="U500" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="V500" s="3"/>
       <c r="W500" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X500" s="3"/>
       <c r="Y500" s="3"/>
@@ -46291,15 +46299,15 @@
       <c r="AB500" s="3"/>
       <c r="AC500" s="3"/>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>75</v>
       </c>
       <c r="B501" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C501" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>30</v>
@@ -46332,7 +46340,7 @@
         <v>2.7505873313984101E-3</v>
       </c>
       <c r="N501" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O501" s="3" t="s">
         <v>26</v>
@@ -46353,7 +46361,7 @@
         <v>0</v>
       </c>
       <c r="U501" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="V501" s="3"/>
       <c r="W501" s="3"/>
@@ -46364,15 +46372,15 @@
       <c r="AB501" s="3"/>
       <c r="AC501" s="3"/>
     </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>75</v>
       </c>
       <c r="B502" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C502" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="D502" s="3" t="s">
         <v>30</v>
@@ -46405,7 +46413,7 @@
         <v>0.47763627990527702</v>
       </c>
       <c r="N502" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="O502" s="3" t="s">
         <v>26</v>
@@ -46426,7 +46434,7 @@
         <v>0</v>
       </c>
       <c r="U502" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="V502" s="3"/>
       <c r="W502" s="3"/>
@@ -46437,15 +46445,15 @@
       <c r="AB502" s="3"/>
       <c r="AC502" s="3"/>
     </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>75</v>
       </c>
       <c r="B503" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C503" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="D503" s="3" t="s">
         <v>30</v>
@@ -46478,7 +46486,7 @@
         <v>0.87031679991573496</v>
       </c>
       <c r="N503" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O503" s="3" t="s">
         <v>26</v>
@@ -46499,7 +46507,7 @@
         <v>0</v>
       </c>
       <c r="U503" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="V503" s="3"/>
       <c r="W503" s="3"/>
@@ -46515,10 +46523,10 @@
         <v>76</v>
       </c>
       <c r="B504" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C504" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>799</v>
       </c>
       <c r="D504" s="3" t="s">
         <v>30</v>
@@ -46551,7 +46559,7 @@
         <v>4.1616554277049501E-2</v>
       </c>
       <c r="N504" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O504" s="3" t="s">
         <v>26</v>
@@ -46572,10 +46580,10 @@
         <v>1</v>
       </c>
       <c r="U504" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="V504" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="W504" s="3"/>
       <c r="X504" s="3"/>
@@ -46590,10 +46598,10 @@
         <v>76</v>
       </c>
       <c r="B505" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C505" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>799</v>
       </c>
       <c r="D505" s="3" t="s">
         <v>30</v>
@@ -46626,7 +46634,7 @@
         <v>4.1209616228100598E-2</v>
       </c>
       <c r="N505" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O505" s="3" t="s">
         <v>26</v>
@@ -46647,10 +46655,10 @@
         <v>1</v>
       </c>
       <c r="U505" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="V505" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="W505" s="3"/>
       <c r="X505" s="3"/>
@@ -46660,15 +46668,15 @@
       <c r="AB505" s="3"/>
       <c r="AC505" s="3"/>
     </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>76</v>
       </c>
       <c r="B506" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C506" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>799</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>30</v>
@@ -46701,7 +46709,7 @@
         <v>1.86044735152475E-7</v>
       </c>
       <c r="N506" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O506" s="3" t="s">
         <v>26</v>
@@ -46722,7 +46730,7 @@
         <v>0</v>
       </c>
       <c r="U506" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="V506" s="3"/>
       <c r="W506" s="3"/>
@@ -46738,10 +46746,10 @@
         <v>76</v>
       </c>
       <c r="B507" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C507" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>799</v>
       </c>
       <c r="D507" s="3" t="s">
         <v>30</v>
@@ -46774,7 +46782,7 @@
         <v>4.1238472386291299E-7</v>
       </c>
       <c r="N507" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O507" s="3" t="s">
         <v>26</v>
@@ -46795,10 +46803,10 @@
         <v>1</v>
       </c>
       <c r="U507" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="V507" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="W507" s="3"/>
       <c r="X507" s="3"/>
@@ -46813,10 +46821,10 @@
         <v>76</v>
       </c>
       <c r="B508" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C508" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>799</v>
       </c>
       <c r="D508" s="3" t="s">
         <v>30</v>
@@ -46849,7 +46857,7 @@
         <v>9.1527801577750596E-3</v>
       </c>
       <c r="N508" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O508" s="3" t="s">
         <v>26</v>
@@ -46870,10 +46878,10 @@
         <v>1</v>
       </c>
       <c r="U508" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V508" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="W508" s="3"/>
       <c r="X508" s="3"/>
@@ -46888,10 +46896,10 @@
         <v>76</v>
       </c>
       <c r="B509" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C509" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>799</v>
       </c>
       <c r="D509" s="3" t="s">
         <v>30</v>
@@ -46924,7 +46932,7 @@
         <v>9.1527801577750596E-3</v>
       </c>
       <c r="N509" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O509" s="3" t="s">
         <v>26</v>
@@ -46945,10 +46953,10 @@
         <v>1</v>
       </c>
       <c r="U509" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="V509" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="W509" s="3"/>
       <c r="X509" s="3"/>
@@ -46963,10 +46971,10 @@
         <v>77</v>
       </c>
       <c r="B510" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C510" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>801</v>
       </c>
       <c r="D510" s="3" t="s">
         <v>30</v>
@@ -46999,7 +47007,7 @@
         <v>2.14058770935785E-3</v>
       </c>
       <c r="N510" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O510" s="3" t="s">
         <v>26</v>
@@ -47020,10 +47028,10 @@
         <v>1</v>
       </c>
       <c r="U510" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="V510" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="W510" s="3"/>
       <c r="X510" s="3"/>
@@ -47038,10 +47046,10 @@
         <v>77</v>
       </c>
       <c r="B511" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C511" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>801</v>
       </c>
       <c r="D511" s="3" t="s">
         <v>30</v>
@@ -47074,7 +47082,7 @@
         <v>2.3821250837094101E-2</v>
       </c>
       <c r="N511" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O511" s="3" t="s">
         <v>26</v>
@@ -47095,10 +47103,10 @@
         <v>1</v>
       </c>
       <c r="U511" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="V511" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="W511" s="3"/>
       <c r="X511" s="3"/>
@@ -47108,15 +47116,15 @@
       <c r="AB511" s="3"/>
       <c r="AC511" s="3"/>
     </row>
-    <row r="512" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>78</v>
       </c>
       <c r="B512" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C512" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>803</v>
       </c>
       <c r="D512" s="3" t="s">
         <v>30</v>
@@ -47149,7 +47157,7 @@
         <v>1.18119840214578E-2</v>
       </c>
       <c r="N512" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O512" s="3" t="s">
         <v>26</v>
@@ -47170,7 +47178,7 @@
         <v>0</v>
       </c>
       <c r="U512" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="V512" s="3"/>
       <c r="W512" s="3"/>
@@ -47181,15 +47189,15 @@
       <c r="AB512" s="3"/>
       <c r="AC512" s="3"/>
     </row>
-    <row r="513" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>78</v>
       </c>
       <c r="B513" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C513" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>803</v>
       </c>
       <c r="D513" s="3" t="s">
         <v>30</v>
@@ -47222,7 +47230,7 @@
         <v>4.3047234252240399E-3</v>
       </c>
       <c r="N513" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O513" s="3" t="s">
         <v>26</v>
@@ -47243,7 +47251,7 @@
         <v>0</v>
       </c>
       <c r="U513" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="V513" s="3"/>
       <c r="W513" s="3"/>
@@ -47254,15 +47262,15 @@
       <c r="AB513" s="3"/>
       <c r="AC513" s="3"/>
     </row>
-    <row r="514" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>78</v>
       </c>
       <c r="B514" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C514" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>803</v>
       </c>
       <c r="D514" s="3" t="s">
         <v>30</v>
@@ -47295,7 +47303,7 @@
         <v>2.65556160172991E-2</v>
       </c>
       <c r="N514" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O514" s="3" t="s">
         <v>26</v>
@@ -47316,7 +47324,7 @@
         <v>0</v>
       </c>
       <c r="U514" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="V514" s="3"/>
       <c r="W514" s="3"/>
@@ -47332,10 +47340,10 @@
         <v>78</v>
       </c>
       <c r="B515" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C515" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="C515" s="3" t="s">
-        <v>803</v>
       </c>
       <c r="D515" s="3" t="s">
         <v>30</v>
@@ -47368,7 +47376,7 @@
         <v>6.2247718777457502E-2</v>
       </c>
       <c r="N515" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O515" s="3" t="s">
         <v>26</v>
@@ -47389,10 +47397,10 @@
         <v>1</v>
       </c>
       <c r="U515" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="V515" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="W515" s="3"/>
       <c r="X515" s="3"/>
@@ -47407,10 +47415,10 @@
         <v>78</v>
       </c>
       <c r="B516" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C516" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>803</v>
       </c>
       <c r="D516" s="3" t="s">
         <v>30</v>
@@ -47443,7 +47451,7 @@
         <v>1.2332005938455201E-2</v>
       </c>
       <c r="N516" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O516" s="3" t="s">
         <v>26</v>
@@ -47464,10 +47472,10 @@
         <v>1</v>
       </c>
       <c r="U516" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="V516" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="W516" s="3"/>
       <c r="X516" s="3"/>
@@ -47477,15 +47485,15 @@
       <c r="AB516" s="3"/>
       <c r="AC516" s="3"/>
     </row>
-    <row r="517" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>79</v>
       </c>
       <c r="B517" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C517" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C517" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="D517" s="3" t="s">
         <v>30</v>
@@ -47518,7 +47526,7 @@
         <v>0</v>
       </c>
       <c r="N517" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O517" s="3" t="s">
         <v>26</v>
@@ -47539,7 +47547,7 @@
         <v>0</v>
       </c>
       <c r="U517" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="V517" s="3"/>
       <c r="W517" s="3"/>
@@ -47555,10 +47563,10 @@
         <v>79</v>
       </c>
       <c r="B518" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C518" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="D518" s="3" t="s">
         <v>30</v>
@@ -47591,7 +47599,7 @@
         <v>7.5851246953709799E-3</v>
       </c>
       <c r="N518" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O518" s="3" t="s">
         <v>26</v>
@@ -47612,10 +47620,10 @@
         <v>1</v>
       </c>
       <c r="U518" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="V518" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="W518" s="3"/>
       <c r="X518" s="3"/>
@@ -47625,15 +47633,15 @@
       <c r="AB518" s="3"/>
       <c r="AC518" s="3"/>
     </row>
-    <row r="519" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>79</v>
       </c>
       <c r="B519" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C519" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="D519" s="3" t="s">
         <v>30</v>
@@ -47666,7 +47674,7 @@
         <v>6.4634132568990199E-2</v>
       </c>
       <c r="N519" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O519" s="3" t="s">
         <v>26</v>
@@ -47687,7 +47695,7 @@
         <v>0</v>
       </c>
       <c r="U519" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="V519" s="3"/>
       <c r="W519" s="3"/>
@@ -47698,15 +47706,15 @@
       <c r="AB519" s="3"/>
       <c r="AC519" s="3"/>
     </row>
-    <row r="520" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>79</v>
       </c>
       <c r="B520" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C520" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="D520" s="3" t="s">
         <v>30</v>
@@ -47739,7 +47747,7 @@
         <v>2.1315078357404499E-3</v>
       </c>
       <c r="N520" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O520" s="3" t="s">
         <v>26</v>
@@ -47760,7 +47768,7 @@
         <v>0</v>
       </c>
       <c r="U520" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="V520" s="3"/>
       <c r="W520" s="3"/>
@@ -47771,15 +47779,15 @@
       <c r="AB520" s="3"/>
       <c r="AC520" s="3"/>
     </row>
-    <row r="521" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>79</v>
       </c>
       <c r="B521" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C521" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>30</v>
@@ -47812,7 +47820,7 @@
         <v>2.1315078357404499E-3</v>
       </c>
       <c r="N521" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O521" s="3" t="s">
         <v>26</v>
@@ -47833,7 +47841,7 @@
         <v>0</v>
       </c>
       <c r="U521" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="V521" s="3"/>
       <c r="W521" s="3"/>
@@ -47849,10 +47857,10 @@
         <v>79</v>
       </c>
       <c r="B522" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C522" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="D522" s="3" t="s">
         <v>30</v>
@@ -47885,7 +47893,7 @@
         <v>4.55002638963585E-2</v>
       </c>
       <c r="N522" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O522" s="3" t="s">
         <v>26</v>
@@ -47906,10 +47914,10 @@
         <v>1</v>
       </c>
       <c r="U522" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="V522" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="W522" s="3"/>
       <c r="X522" s="3"/>
@@ -47924,10 +47932,10 @@
         <v>79</v>
       </c>
       <c r="B523" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C523" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>30</v>
@@ -47960,7 +47968,7 @@
         <v>4.7822414133905002E-3</v>
       </c>
       <c r="N523" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O523" s="3" t="s">
         <v>26</v>
@@ -47981,10 +47989,10 @@
         <v>1</v>
       </c>
       <c r="U523" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="V523" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="W523" s="3"/>
       <c r="X523" s="3"/>
@@ -47999,10 +48007,10 @@
         <v>79</v>
       </c>
       <c r="B524" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C524" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="D524" s="3" t="s">
         <v>30</v>
@@ -48035,7 +48043,7 @@
         <v>2.56419831722009E-2</v>
       </c>
       <c r="N524" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O524" s="3" t="s">
         <v>26</v>
@@ -48056,10 +48064,10 @@
         <v>1</v>
       </c>
       <c r="U524" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="V524" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="W524" s="3"/>
       <c r="X524" s="3"/>
@@ -48069,15 +48077,15 @@
       <c r="AB524" s="3"/>
       <c r="AC524" s="3"/>
     </row>
-    <row r="525" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:33" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>80</v>
       </c>
       <c r="B525" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C525" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>864</v>
       </c>
       <c r="D525" s="3" t="s">
         <v>538</v>
@@ -48110,7 +48118,7 @@
         <v>4.2760712914205099E-4</v>
       </c>
       <c r="N525" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O525" s="3" t="s">
         <v>26</v>
@@ -48129,7 +48137,7 @@
         <v>0</v>
       </c>
       <c r="U525" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V525" s="3"/>
       <c r="W525" s="3"/>
@@ -48146,6 +48154,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W525" xr:uid="{F7B6A5D8-5E84-4C80-BF88-D9977FF5508A}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Altschul, Lee, Gershoff"/>
+        <filter val="Fingerman, Kim, Birditt, Zarit"/>
+        <filter val="Jia, Kotila, Schoppe‐Sullivan, Kamp Dush"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="21">
       <filters blank="1"/>
     </filterColumn>
